--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Switchboard_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Switchboard_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A3A1EE-C629-459B-96D2-C7F7E5933F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC7D8DE-CAA5-4218-B7BF-CE08DDC20226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="5325" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区操作盤_UIList" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="325">
   <si>
     <t>Type</t>
   </si>
@@ -573,6 +573,9 @@
     <t>1R</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -912,6 +915,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>着点ボタン</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -1404,7 +1410,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -2043,7 +2049,9 @@
         <v>39</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2068,19 +2076,19 @@
         <v>39</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W6" s="6">
         <v>0</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
@@ -2093,10 +2101,10 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>39</v>
@@ -2129,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>39</v>
@@ -2156,10 +2164,12 @@
         <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2181,19 +2191,19 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W8" s="6">
         <v>0</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -2207,13 +2217,13 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2243,13 +2253,13 @@
         <v>10</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -2270,10 +2280,12 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2295,19 +2307,19 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W10" s="6">
         <v>0</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -2321,13 +2333,13 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2357,13 +2369,13 @@
         <v>10</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2384,10 +2396,12 @@
         <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2409,19 +2423,19 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W12" s="6">
         <v>0</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -2435,13 +2449,13 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2471,13 +2485,13 @@
         <v>10</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -2498,10 +2512,12 @@
         <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2523,19 +2539,19 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W14" s="6">
         <v>0</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -2549,13 +2565,13 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2585,13 +2601,13 @@
         <v>10</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -2612,10 +2628,12 @@
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2637,22 +2655,22 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W16" s="6">
         <v>0</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
@@ -2665,13 +2683,13 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2701,13 +2719,13 @@
         <v>10</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -2728,10 +2746,12 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2753,19 +2773,19 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W18" s="6">
         <v>0</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -2779,13 +2799,13 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2815,13 +2835,13 @@
         <v>10</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -2842,10 +2862,12 @@
         <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2867,19 +2889,19 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W20" s="6">
         <v>0</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
@@ -2893,13 +2915,13 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2929,13 +2951,13 @@
         <v>10</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -2956,10 +2978,12 @@
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2981,19 +3005,19 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W22" s="6">
         <v>0</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -3007,13 +3031,13 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3043,13 +3067,13 @@
         <v>10</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -3070,10 +3094,12 @@
         <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -3095,19 +3121,19 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W24" s="6">
         <v>0</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y24" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -3121,13 +3147,13 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3157,13 +3183,13 @@
         <v>10</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
@@ -3184,10 +3210,12 @@
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3209,22 +3237,22 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W26" s="6">
         <v>0</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
@@ -3237,13 +3265,13 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3267,19 +3295,19 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" s="9">
         <v>10</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
@@ -3300,10 +3328,12 @@
         <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3325,19 +3355,19 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W28" s="6">
         <v>0</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -3351,13 +3381,13 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3387,13 +3417,13 @@
         <v>10</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
@@ -3414,10 +3444,12 @@
         <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3439,19 +3471,19 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W30" s="6">
         <v>0</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -3465,13 +3497,13 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3495,19 +3527,19 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R31" s="9">
         <v>10</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
@@ -3528,7 +3560,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3554,19 +3586,19 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W32" s="6">
         <v>0</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
@@ -3579,13 +3611,13 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3615,10 +3647,10 @@
         <v>10</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -3626,7 +3658,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
@@ -3642,7 +3674,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3668,19 +3700,19 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W34" s="6">
         <v>0</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
@@ -3693,13 +3725,13 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3729,10 +3761,10 @@
         <v>10</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
@@ -3740,7 +3772,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
@@ -3756,7 +3788,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3782,19 +3814,19 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W36" s="6">
         <v>0</v>
       </c>
       <c r="X36" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
@@ -3807,13 +3839,13 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3843,10 +3875,10 @@
         <v>10</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
@@ -3854,7 +3886,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
@@ -3870,7 +3902,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3896,19 +3928,19 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W38" s="6">
         <v>0</v>
       </c>
       <c r="X38" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
@@ -3921,13 +3953,13 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3957,10 +3989,10 @@
         <v>10</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
@@ -3968,7 +4000,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="10"/>
       <c r="Z39" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
@@ -3984,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -4010,19 +4042,19 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W40" s="6">
         <v>0</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y40" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
@@ -4035,13 +4067,13 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4071,10 +4103,10 @@
         <v>10</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
@@ -4082,7 +4114,7 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
@@ -4098,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -4124,19 +4156,19 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W42" s="6">
         <v>0</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
@@ -4149,13 +4181,13 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4185,10 +4217,10 @@
         <v>10</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
@@ -4196,7 +4228,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
@@ -4212,7 +4244,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -4238,19 +4270,19 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W44" s="6">
         <v>0</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
@@ -4263,13 +4295,13 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4299,10 +4331,10 @@
         <v>10</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
@@ -4310,7 +4342,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
@@ -4326,7 +4358,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -4352,19 +4384,19 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W46" s="6">
         <v>0</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y46" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
@@ -4377,13 +4409,13 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4413,10 +4445,10 @@
         <v>10</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -4424,7 +4456,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="10"/>
       <c r="Z47" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
@@ -4440,7 +4472,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -4466,19 +4498,19 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W48" s="6">
         <v>0</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y48" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z48" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
@@ -4491,13 +4523,13 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4527,10 +4559,10 @@
         <v>10</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -4538,7 +4570,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="10"/>
       <c r="Z49" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -4554,7 +4586,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -4580,19 +4612,19 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W50" s="6">
         <v>0</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y50" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
@@ -4605,13 +4637,13 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4641,10 +4673,10 @@
         <v>10</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T51" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -4652,7 +4684,7 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
@@ -4668,7 +4700,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -4694,19 +4726,19 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W52" s="6">
         <v>0</v>
       </c>
       <c r="X52" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y52" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z52" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
@@ -4719,13 +4751,13 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4755,10 +4787,10 @@
         <v>10</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -4766,7 +4798,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
@@ -4782,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -4808,19 +4840,19 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W54" s="6">
         <v>0</v>
       </c>
       <c r="X54" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y54" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z54" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
@@ -4833,13 +4865,13 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4869,10 +4901,10 @@
         <v>10</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
@@ -4880,7 +4912,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
@@ -4896,7 +4928,7 @@
         <v>38</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -4922,19 +4954,19 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W56" s="6">
         <v>0</v>
       </c>
       <c r="X56" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y56" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
@@ -4947,13 +4979,13 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -4983,10 +5015,10 @@
         <v>10</v>
       </c>
       <c r="S57" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
@@ -4994,7 +5026,7 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
@@ -5010,7 +5042,7 @@
         <v>38</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -5036,19 +5068,19 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W58" s="6">
         <v>0</v>
       </c>
       <c r="X58" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y58" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z58" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
@@ -5061,13 +5093,13 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5091,16 +5123,16 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R59" s="9">
         <v>10</v>
       </c>
       <c r="S59" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T59" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
@@ -5108,7 +5140,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
@@ -5124,7 +5156,7 @@
         <v>38</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -5150,19 +5182,19 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W60" s="6">
         <v>0</v>
       </c>
       <c r="X60" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y60" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
@@ -5175,13 +5207,13 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5211,10 +5243,10 @@
         <v>10</v>
       </c>
       <c r="S61" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -5222,7 +5254,7 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
@@ -5238,7 +5270,7 @@
         <v>38</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5264,19 +5296,19 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W62" s="6">
         <v>0</v>
       </c>
       <c r="X62" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y62" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
@@ -5289,13 +5321,13 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5319,16 +5351,16 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R63" s="9">
         <v>10</v>
       </c>
       <c r="S63" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
@@ -5336,7 +5368,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="10"/>
       <c r="Z63" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
@@ -5352,7 +5384,7 @@
         <v>38</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -5378,19 +5410,19 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W64" s="6">
         <v>0</v>
       </c>
       <c r="X64" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y64" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z64" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
@@ -5403,13 +5435,13 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5439,10 +5471,10 @@
         <v>10</v>
       </c>
       <c r="S65" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T65" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
@@ -5450,7 +5482,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="10"/>
       <c r="Z65" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
@@ -5466,7 +5498,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -5492,19 +5524,19 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W66" s="6">
         <v>0</v>
       </c>
       <c r="X66" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y66" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z66" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
@@ -5517,13 +5549,13 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5547,16 +5579,16 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R67" s="9">
         <v>10</v>
       </c>
       <c r="S67" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
@@ -5564,7 +5596,7 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="10"/>
       <c r="Z67" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
@@ -5580,7 +5612,7 @@
         <v>38</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -5606,19 +5638,19 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W68" s="6">
         <v>0</v>
       </c>
       <c r="X68" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y68" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
@@ -5631,13 +5663,13 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5667,10 +5699,10 @@
         <v>10</v>
       </c>
       <c r="S69" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
@@ -5678,7 +5710,7 @@
       <c r="X69" s="4"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
@@ -5694,7 +5726,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -5720,19 +5752,19 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W70" s="6">
         <v>0</v>
       </c>
       <c r="X70" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y70" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
@@ -5745,13 +5777,13 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -5781,10 +5813,10 @@
         <v>10</v>
       </c>
       <c r="S71" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
@@ -5792,7 +5824,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
@@ -5808,7 +5840,7 @@
         <v>38</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5834,19 +5866,19 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W72" s="6">
         <v>0</v>
       </c>
       <c r="X72" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y72" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z72" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
@@ -5859,13 +5891,13 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -5895,10 +5927,10 @@
         <v>10</v>
       </c>
       <c r="S73" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
@@ -5906,7 +5938,7 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="10"/>
       <c r="Z73" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
@@ -5922,7 +5954,7 @@
         <v>38</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5948,19 +5980,19 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W74" s="6">
         <v>0</v>
       </c>
       <c r="X74" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y74" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z74" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
@@ -5973,13 +6005,13 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -6009,10 +6041,10 @@
         <v>10</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
@@ -6020,7 +6052,7 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="10"/>
       <c r="Z75" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
@@ -6036,7 +6068,7 @@
         <v>38</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6062,19 +6094,19 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W76" s="6">
         <v>0</v>
       </c>
       <c r="X76" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y76" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
@@ -6087,13 +6119,13 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -6123,10 +6155,10 @@
         <v>10</v>
       </c>
       <c r="S77" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
@@ -6134,7 +6166,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="10"/>
       <c r="Z77" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
@@ -6150,7 +6182,7 @@
         <v>38</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6176,19 +6208,19 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W78" s="6">
         <v>0</v>
       </c>
       <c r="X78" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y78" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z78" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
@@ -6201,13 +6233,13 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -6231,16 +6263,16 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R79" s="9">
         <v>10</v>
       </c>
       <c r="S79" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
@@ -6248,7 +6280,7 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="10"/>
       <c r="Z79" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
@@ -6264,7 +6296,7 @@
         <v>38</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6290,19 +6322,19 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W80" s="6">
         <v>0</v>
       </c>
       <c r="X80" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y80" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
@@ -6315,13 +6347,13 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -6351,10 +6383,10 @@
         <v>10</v>
       </c>
       <c r="S81" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T81" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -6362,7 +6394,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="10"/>
       <c r="Z81" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
@@ -6378,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6404,19 +6436,19 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W82" s="6">
         <v>0</v>
       </c>
       <c r="X82" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y82" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z82" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
@@ -6429,13 +6461,13 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -6459,16 +6491,16 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R83" s="9">
         <v>10</v>
       </c>
       <c r="S83" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T83" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
@@ -6476,7 +6508,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="10"/>
       <c r="Z83" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
@@ -6492,7 +6524,7 @@
         <v>38</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6518,19 +6550,19 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W84" s="6">
         <v>0</v>
       </c>
       <c r="X84" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y84" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z84" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
@@ -6543,13 +6575,13 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B85" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -6579,10 +6611,10 @@
         <v>10</v>
       </c>
       <c r="S85" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T85" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -6590,7 +6622,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="10"/>
       <c r="Z85" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
@@ -6606,7 +6638,7 @@
         <v>38</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6632,19 +6664,19 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W86" s="6">
         <v>0</v>
       </c>
       <c r="X86" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y86" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z86" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
@@ -6657,13 +6689,13 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6687,16 +6719,16 @@
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R87" s="9">
         <v>10</v>
       </c>
       <c r="S87" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T87" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
@@ -6704,7 +6736,7 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="10"/>
       <c r="Z87" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
@@ -6717,13 +6749,15 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -6745,19 +6779,19 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W88" s="6">
         <v>0</v>
       </c>
       <c r="X88" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y88" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
@@ -6771,13 +6805,13 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="4"/>
@@ -6801,19 +6835,19 @@
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R89" s="9">
         <v>10</v>
       </c>
       <c r="S89" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T89" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U89" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
@@ -6831,13 +6865,15 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -6859,19 +6895,19 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V90" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W90" s="6">
         <v>0</v>
       </c>
       <c r="X90" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y90" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
@@ -6885,13 +6921,13 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="4"/>
@@ -6915,19 +6951,19 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R91" s="9">
         <v>10</v>
       </c>
       <c r="S91" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T91" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U91" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
@@ -6945,13 +6981,15 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -6973,19 +7011,19 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V92" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W92" s="6">
         <v>0</v>
       </c>
       <c r="X92" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y92" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
@@ -6999,13 +7037,13 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="4"/>
@@ -7029,19 +7067,19 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R93" s="9">
         <v>10</v>
       </c>
       <c r="S93" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T93" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U93" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
@@ -7059,13 +7097,15 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7087,19 +7127,19 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V94" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W94" s="6">
         <v>0</v>
       </c>
       <c r="X94" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y94" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
@@ -7113,13 +7153,13 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="4"/>
@@ -7143,19 +7183,19 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R95" s="9">
         <v>10</v>
       </c>
       <c r="S95" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T95" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U95" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
@@ -7173,13 +7213,15 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7201,19 +7243,19 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W96" s="6">
         <v>0</v>
       </c>
       <c r="X96" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y96" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
@@ -7227,13 +7269,13 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="4"/>
@@ -7257,19 +7299,19 @@
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R97" s="9">
         <v>10</v>
       </c>
       <c r="S97" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T97" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U97" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
@@ -7287,10 +7329,10 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -7316,19 +7358,19 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W98" s="6">
         <v>0</v>
       </c>
       <c r="X98" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y98" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z98" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
@@ -7341,13 +7383,13 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -7371,16 +7413,16 @@
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R99" s="9">
         <v>10</v>
       </c>
       <c r="S99" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T99" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
@@ -7388,7 +7430,7 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="10"/>
       <c r="Z99" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
@@ -7401,10 +7443,10 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -7430,19 +7472,19 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W100" s="6">
         <v>0</v>
       </c>
       <c r="X100" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y100" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z100" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
@@ -7455,13 +7497,13 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -7485,16 +7527,16 @@
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R101" s="9">
         <v>10</v>
       </c>
       <c r="S101" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T101" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
@@ -7502,7 +7544,7 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="10"/>
       <c r="Z101" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
@@ -7515,10 +7557,10 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -7544,19 +7586,19 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W102" s="6">
         <v>0</v>
       </c>
       <c r="X102" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y102" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z102" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
@@ -7569,13 +7611,13 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -7599,16 +7641,16 @@
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R103" s="9">
         <v>10</v>
       </c>
       <c r="S103" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T103" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
@@ -7616,7 +7658,7 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="10"/>
       <c r="Z103" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
@@ -7629,10 +7671,10 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -7658,19 +7700,19 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W104" s="6">
         <v>0</v>
       </c>
       <c r="X104" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y104" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z104" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
@@ -7683,13 +7725,13 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -7713,16 +7755,16 @@
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
       <c r="Q105" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R105" s="9">
         <v>10</v>
       </c>
       <c r="S105" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T105" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
@@ -7730,7 +7772,7 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="10"/>
       <c r="Z105" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
@@ -7743,7 +7785,7 @@
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B106" s="4">
         <v>1</v>
@@ -7772,19 +7814,19 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W106" s="6">
         <v>0</v>
       </c>
       <c r="X106" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y106" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z106" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
@@ -7797,10 +7839,10 @@
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C107" s="9">
         <v>1</v>
@@ -7833,10 +7875,10 @@
         <v>10</v>
       </c>
       <c r="S107" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T107" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
@@ -7844,7 +7886,7 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="10"/>
       <c r="Z107" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
@@ -7857,7 +7899,7 @@
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B108" s="4">
         <v>2</v>
@@ -7886,19 +7928,19 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W108" s="6">
         <v>0</v>
       </c>
       <c r="X108" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y108" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
@@ -7911,10 +7953,10 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C109" s="9">
         <v>2</v>
@@ -7947,10 +7989,10 @@
         <v>10</v>
       </c>
       <c r="S109" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T109" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
@@ -7958,7 +8000,7 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="10"/>
       <c r="Z109" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
@@ -7971,7 +8013,7 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" s="4">
         <v>3</v>
@@ -8000,19 +8042,19 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W110" s="6">
         <v>0</v>
       </c>
       <c r="X110" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y110" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z110" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
@@ -8025,10 +8067,10 @@
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C111" s="9">
         <v>3</v>
@@ -8061,10 +8103,10 @@
         <v>10</v>
       </c>
       <c r="S111" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T111" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
@@ -8072,7 +8114,7 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="10"/>
       <c r="Z111" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
@@ -8085,7 +8127,7 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B112" s="4">
         <v>4</v>
@@ -8114,19 +8156,19 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
       <c r="V112" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W112" s="6">
         <v>0</v>
       </c>
       <c r="X112" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y112" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z112" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
@@ -8139,10 +8181,10 @@
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C113" s="9">
         <v>4</v>
@@ -8175,10 +8217,10 @@
         <v>10</v>
       </c>
       <c r="S113" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T113" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
@@ -8186,7 +8228,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="10"/>
       <c r="Z113" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
@@ -8199,7 +8241,7 @@
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B114" s="4">
         <v>5</v>
@@ -8228,19 +8270,19 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W114" s="6">
         <v>0</v>
       </c>
       <c r="X114" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y114" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z114" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
@@ -8253,10 +8295,10 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C115" s="9">
         <v>5</v>
@@ -8289,10 +8331,10 @@
         <v>10</v>
       </c>
       <c r="S115" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T115" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
@@ -8300,7 +8342,7 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="10"/>
       <c r="Z115" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
@@ -8313,7 +8355,7 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B116" s="4">
         <v>6</v>
@@ -8342,19 +8384,19 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
       <c r="V116" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W116" s="6">
         <v>0</v>
       </c>
       <c r="X116" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y116" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z116" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
@@ -8367,10 +8409,10 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C117" s="9">
         <v>6</v>
@@ -8403,10 +8445,10 @@
         <v>10</v>
       </c>
       <c r="S117" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T117" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
@@ -8414,7 +8456,7 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="10"/>
       <c r="Z117" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
@@ -8427,7 +8469,7 @@
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B118" s="4">
         <v>7</v>
@@ -8456,19 +8498,19 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
       <c r="V118" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W118" s="6">
         <v>0</v>
       </c>
       <c r="X118" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y118" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z118" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
@@ -8481,10 +8523,10 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C119" s="9">
         <v>7</v>
@@ -8517,10 +8559,10 @@
         <v>10</v>
       </c>
       <c r="S119" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T119" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
@@ -8528,7 +8570,7 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="10"/>
       <c r="Z119" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
@@ -8541,7 +8583,7 @@
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B120" s="4">
         <v>8</v>
@@ -8570,19 +8612,19 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W120" s="6">
         <v>0</v>
       </c>
       <c r="X120" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y120" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z120" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
@@ -8595,10 +8637,10 @@
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C121" s="9">
         <v>8</v>
@@ -8631,10 +8673,10 @@
         <v>10</v>
       </c>
       <c r="S121" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T121" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
@@ -8642,7 +8684,7 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="10"/>
       <c r="Z121" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
@@ -8655,7 +8697,7 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B122" s="4">
         <v>9</v>
@@ -8684,19 +8726,19 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W122" s="6">
         <v>0</v>
       </c>
       <c r="X122" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y122" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z122" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
@@ -8709,10 +8751,10 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C123" s="9">
         <v>9</v>
@@ -8745,10 +8787,10 @@
         <v>10</v>
       </c>
       <c r="S123" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T123" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
@@ -8756,7 +8798,7 @@
       <c r="X123" s="4"/>
       <c r="Y123" s="10"/>
       <c r="Z123" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
@@ -8769,13 +8811,15 @@
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="4">
         <v>13</v>
       </c>
       <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+      <c r="D124" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -8800,16 +8844,16 @@
         <v>13</v>
       </c>
       <c r="V124" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W124" s="6">
         <v>0</v>
       </c>
       <c r="X124" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y124" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
@@ -8823,10 +8867,10 @@
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C125" s="6">
         <v>13</v>
@@ -8859,10 +8903,10 @@
         <v>10</v>
       </c>
       <c r="S125" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T125" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U125" s="6">
         <v>13</v>
@@ -8883,7 +8927,7 @@
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B126" s="4">
         <v>21</v>
@@ -8912,19 +8956,19 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W126" s="6">
         <v>0</v>
       </c>
       <c r="X126" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y126" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z126" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
@@ -8937,10 +8981,10 @@
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C127" s="9">
         <v>21</v>
@@ -8973,10 +9017,10 @@
         <v>10</v>
       </c>
       <c r="S127" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T127" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
@@ -8984,7 +9028,7 @@
       <c r="X127" s="4"/>
       <c r="Y127" s="10"/>
       <c r="Z127" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
@@ -8997,7 +9041,7 @@
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B128" s="4">
         <v>22</v>
@@ -9026,19 +9070,19 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W128" s="6">
         <v>0</v>
       </c>
       <c r="X128" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y128" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z128" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
@@ -9051,10 +9095,10 @@
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C129" s="9">
         <v>22</v>
@@ -9087,10 +9131,10 @@
         <v>10</v>
       </c>
       <c r="S129" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T129" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
@@ -9098,7 +9142,7 @@
       <c r="X129" s="4"/>
       <c r="Y129" s="10"/>
       <c r="Z129" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
@@ -9111,7 +9155,7 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" s="4">
         <v>23</v>
@@ -9140,19 +9184,19 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W130" s="6">
         <v>0</v>
       </c>
       <c r="X130" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y130" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z130" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
@@ -9165,10 +9209,10 @@
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C131" s="9">
         <v>23</v>
@@ -9201,10 +9245,10 @@
         <v>10</v>
       </c>
       <c r="S131" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T131" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
@@ -9212,7 +9256,7 @@
       <c r="X131" s="4"/>
       <c r="Y131" s="10"/>
       <c r="Z131" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
@@ -9225,7 +9269,7 @@
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B132" s="4">
         <v>24</v>
@@ -9254,19 +9298,19 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W132" s="6">
         <v>0</v>
       </c>
       <c r="X132" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y132" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z132" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
@@ -9279,10 +9323,10 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C133" s="9">
         <v>24</v>
@@ -9315,10 +9359,10 @@
         <v>10</v>
       </c>
       <c r="S133" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T133" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
@@ -9326,7 +9370,7 @@
       <c r="X133" s="4"/>
       <c r="Y133" s="10"/>
       <c r="Z133" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
@@ -9339,7 +9383,7 @@
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B134" s="4">
         <v>25</v>
@@ -9368,19 +9412,19 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W134" s="6">
         <v>0</v>
       </c>
       <c r="X134" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y134" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z134" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
@@ -9393,10 +9437,10 @@
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C135" s="9">
         <v>25</v>
@@ -9429,10 +9473,10 @@
         <v>10</v>
       </c>
       <c r="S135" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T135" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
@@ -9440,7 +9484,7 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="10"/>
       <c r="Z135" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
@@ -9453,7 +9497,7 @@
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B136" s="4">
         <v>26</v>
@@ -9482,19 +9526,19 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W136" s="6">
         <v>0</v>
       </c>
       <c r="X136" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y136" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z136" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
@@ -9507,10 +9551,10 @@
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C137" s="9">
         <v>26</v>
@@ -9543,10 +9587,10 @@
         <v>10</v>
       </c>
       <c r="S137" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T137" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
@@ -9554,7 +9598,7 @@
       <c r="X137" s="4"/>
       <c r="Y137" s="10"/>
       <c r="Z137" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
@@ -9567,7 +9611,7 @@
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B138" s="4">
         <v>27</v>
@@ -9596,19 +9640,19 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W138" s="6">
         <v>0</v>
       </c>
       <c r="X138" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y138" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z138" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
@@ -9621,10 +9665,10 @@
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C139" s="9">
         <v>27</v>
@@ -9657,10 +9701,10 @@
         <v>10</v>
       </c>
       <c r="S139" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T139" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
@@ -9668,7 +9712,7 @@
       <c r="X139" s="4"/>
       <c r="Y139" s="10"/>
       <c r="Z139" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
@@ -9681,7 +9725,7 @@
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B140" s="4">
         <v>28</v>
@@ -9710,19 +9754,19 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W140" s="6">
         <v>0</v>
       </c>
       <c r="X140" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y140" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z140" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
@@ -9735,10 +9779,10 @@
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C141" s="9">
         <v>28</v>
@@ -9771,10 +9815,10 @@
         <v>10</v>
       </c>
       <c r="S141" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T141" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
@@ -9782,7 +9826,7 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="10"/>
       <c r="Z141" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
@@ -9795,7 +9839,7 @@
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B142" s="4">
         <v>29</v>
@@ -9824,19 +9868,19 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W142" s="6">
         <v>0</v>
       </c>
       <c r="X142" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y142" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z142" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
@@ -9849,10 +9893,10 @@
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C143" s="9">
         <v>29</v>
@@ -9885,10 +9929,10 @@
         <v>10</v>
       </c>
       <c r="S143" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T143" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
@@ -9896,7 +9940,7 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="10"/>
       <c r="Z143" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
@@ -9909,7 +9953,7 @@
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B144" s="4">
         <v>30</v>
@@ -9938,19 +9982,19 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W144" s="6">
         <v>0</v>
       </c>
       <c r="X144" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y144" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z144" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
@@ -9963,10 +10007,10 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C145" s="9">
         <v>30</v>
@@ -9999,10 +10043,10 @@
         <v>10</v>
       </c>
       <c r="S145" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T145" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
@@ -10010,7 +10054,7 @@
       <c r="X145" s="4"/>
       <c r="Y145" s="10"/>
       <c r="Z145" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
@@ -10023,10 +10067,10 @@
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -10051,19 +10095,19 @@
       <c r="S146" s="4"/>
       <c r="T146" s="4"/>
       <c r="U146" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W146" s="6">
         <v>0</v>
       </c>
       <c r="X146" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y146" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
@@ -10077,10 +10121,10 @@
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -10105,19 +10149,19 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
       <c r="U147" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W147" s="6">
         <v>0</v>
       </c>
       <c r="X147" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y147" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
@@ -10134,10 +10178,12 @@
         <v>38</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -10159,22 +10205,22 @@
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
       <c r="U148" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V148" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W148" s="6">
         <v>0</v>
       </c>
       <c r="X148" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y148" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z148" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
@@ -10190,11 +10236,11 @@
         <v>29</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="4"/>
@@ -10218,17 +10264,17 @@
       <c r="T149" s="4"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W149" s="6">
         <v>0</v>
       </c>
       <c r="X149" s="7"/>
       <c r="Y149" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z149" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
@@ -10244,11 +10290,11 @@
         <v>29</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="4"/>
@@ -10272,14 +10318,14 @@
       <c r="T150" s="4"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W150" s="6">
         <v>0</v>
       </c>
       <c r="X150" s="7"/>
       <c r="Y150" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
@@ -10293,13 +10339,13 @@
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="4"/>
@@ -10329,13 +10375,13 @@
         <v>10</v>
       </c>
       <c r="S151" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T151" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U151" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
@@ -10356,10 +10402,12 @@
         <v>38</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -10381,19 +10429,19 @@
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
       <c r="U152" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="V152" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W152" s="6">
         <v>0</v>
       </c>
       <c r="X152" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y152" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
@@ -10410,11 +10458,11 @@
         <v>29</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="4"/>
@@ -10438,14 +10486,14 @@
       <c r="T153" s="4"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W153" s="6">
         <v>0</v>
       </c>
       <c r="X153" s="7"/>
       <c r="Y153" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
@@ -10462,11 +10510,11 @@
         <v>29</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="4"/>
@@ -10490,14 +10538,14 @@
       <c r="T154" s="4"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W154" s="6">
         <v>0</v>
       </c>
       <c r="X154" s="7"/>
       <c r="Y154" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
@@ -10511,13 +10559,13 @@
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="4"/>
@@ -10547,13 +10595,13 @@
         <v>10</v>
       </c>
       <c r="S155" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T155" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U155" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
@@ -10574,10 +10622,12 @@
         <v>38</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -10599,19 +10649,19 @@
       <c r="S156" s="4"/>
       <c r="T156" s="4"/>
       <c r="U156" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="V156" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W156" s="6">
         <v>0</v>
       </c>
       <c r="X156" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y156" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
@@ -10628,11 +10678,11 @@
         <v>29</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="4"/>
@@ -10656,14 +10706,14 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
       <c r="V157" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W157" s="6">
         <v>0</v>
       </c>
       <c r="X157" s="7"/>
       <c r="Y157" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
@@ -10680,11 +10730,11 @@
         <v>29</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="4"/>
@@ -10708,14 +10758,14 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
       <c r="V158" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W158" s="6">
         <v>0</v>
       </c>
       <c r="X158" s="7"/>
       <c r="Y158" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
@@ -10729,13 +10779,13 @@
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="4"/>
@@ -10765,13 +10815,13 @@
         <v>10</v>
       </c>
       <c r="S159" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T159" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U159" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
@@ -10792,10 +10842,12 @@
         <v>38</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -10817,19 +10869,19 @@
       <c r="S160" s="4"/>
       <c r="T160" s="4"/>
       <c r="U160" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="V160" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W160" s="6">
         <v>0</v>
       </c>
       <c r="X160" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y160" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
@@ -10846,11 +10898,11 @@
         <v>29</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="4"/>
@@ -10874,14 +10926,14 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
       <c r="V161" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W161" s="6">
         <v>0</v>
       </c>
       <c r="X161" s="7"/>
       <c r="Y161" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
@@ -10898,11 +10950,11 @@
         <v>29</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="4"/>
@@ -10926,14 +10978,14 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
       <c r="V162" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W162" s="6">
         <v>0</v>
       </c>
       <c r="X162" s="7"/>
       <c r="Y162" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
@@ -10947,13 +10999,13 @@
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="4"/>
@@ -10983,13 +11035,13 @@
         <v>10</v>
       </c>
       <c r="S163" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T163" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U163" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
@@ -11010,10 +11062,12 @@
         <v>38</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -11035,19 +11089,19 @@
       <c r="S164" s="4"/>
       <c r="T164" s="4"/>
       <c r="U164" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="V164" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W164" s="6">
         <v>0</v>
       </c>
       <c r="X164" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y164" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
@@ -11064,11 +11118,11 @@
         <v>29</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="4"/>
@@ -11092,14 +11146,14 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
       <c r="V165" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W165" s="6">
         <v>0</v>
       </c>
       <c r="X165" s="7"/>
       <c r="Y165" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
@@ -11116,11 +11170,11 @@
         <v>29</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="4"/>
@@ -11144,14 +11198,14 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
       <c r="V166" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W166" s="6">
         <v>0</v>
       </c>
       <c r="X166" s="7"/>
       <c r="Y166" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
@@ -11165,13 +11219,13 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="4"/>
@@ -11201,13 +11255,13 @@
         <v>10</v>
       </c>
       <c r="S167" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T167" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U167" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
@@ -11228,10 +11282,12 @@
         <v>38</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+      <c r="D168" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -11253,19 +11309,19 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
       <c r="U168" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V168" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W168" s="6">
         <v>0</v>
       </c>
       <c r="X168" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y168" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
@@ -11282,11 +11338,11 @@
         <v>29</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="4"/>
@@ -11310,14 +11366,14 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
       <c r="V169" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W169" s="6">
         <v>0</v>
       </c>
       <c r="X169" s="7"/>
       <c r="Y169" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
@@ -11334,11 +11390,11 @@
         <v>29</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="4"/>
@@ -11362,14 +11418,14 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
       <c r="V170" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W170" s="6">
         <v>0</v>
       </c>
       <c r="X170" s="7"/>
       <c r="Y170" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
@@ -11383,13 +11439,13 @@
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="4"/>
@@ -11419,13 +11475,13 @@
         <v>10</v>
       </c>
       <c r="S171" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T171" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U171" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
@@ -11446,10 +11502,12 @@
         <v>38</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
@@ -11471,19 +11529,19 @@
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
       <c r="U172" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="V172" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W172" s="6">
         <v>0</v>
       </c>
       <c r="X172" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y172" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
@@ -11500,11 +11558,11 @@
         <v>29</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="4"/>
@@ -11528,14 +11586,14 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
       <c r="V173" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W173" s="6">
         <v>0</v>
       </c>
       <c r="X173" s="7"/>
       <c r="Y173" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
@@ -11552,11 +11610,11 @@
         <v>29</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="4"/>
@@ -11580,14 +11638,14 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
       <c r="V174" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W174" s="6">
         <v>0</v>
       </c>
       <c r="X174" s="7"/>
       <c r="Y174" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
@@ -11601,13 +11659,13 @@
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="4"/>
@@ -11637,13 +11695,13 @@
         <v>10</v>
       </c>
       <c r="S175" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T175" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U175" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
@@ -11664,7 +11722,7 @@
         <v>38</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -11690,19 +11748,19 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W176" s="6">
         <v>0</v>
       </c>
       <c r="X176" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y176" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z176" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
@@ -11718,7 +11776,7 @@
         <v>29</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -11744,17 +11802,17 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
       <c r="V177" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W177" s="6">
         <v>0</v>
       </c>
       <c r="X177" s="7"/>
       <c r="Y177" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z177" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
@@ -11770,7 +11828,7 @@
         <v>29</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -11796,17 +11854,17 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
       <c r="V178" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W178" s="6">
         <v>0</v>
       </c>
       <c r="X178" s="7"/>
       <c r="Y178" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z178" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
@@ -11819,13 +11877,13 @@
     </row>
     <row r="179" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -11855,10 +11913,10 @@
         <v>10</v>
       </c>
       <c r="S179" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T179" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
@@ -11866,7 +11924,7 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="10"/>
       <c r="Z179" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
@@ -11882,7 +11940,7 @@
         <v>38</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -11908,19 +11966,19 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
       <c r="V180" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W180" s="6">
         <v>0</v>
       </c>
       <c r="X180" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y180" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z180" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
@@ -11936,7 +11994,7 @@
         <v>29</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -11962,17 +12020,17 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
       <c r="V181" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W181" s="6">
         <v>0</v>
       </c>
       <c r="X181" s="7"/>
       <c r="Y181" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z181" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
@@ -11988,7 +12046,7 @@
         <v>29</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -12014,17 +12072,17 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W182" s="6">
         <v>0</v>
       </c>
       <c r="X182" s="7"/>
       <c r="Y182" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z182" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
@@ -12037,13 +12095,13 @@
     </row>
     <row r="183" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -12073,10 +12131,10 @@
         <v>10</v>
       </c>
       <c r="S183" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T183" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
@@ -12084,7 +12142,7 @@
       <c r="X183" s="4"/>
       <c r="Y183" s="10"/>
       <c r="Z183" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
@@ -12100,7 +12158,7 @@
         <v>38</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -12126,19 +12184,19 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
       <c r="V184" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W184" s="6">
         <v>0</v>
       </c>
       <c r="X184" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y184" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z184" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
@@ -12154,7 +12212,7 @@
         <v>29</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -12180,17 +12238,17 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
       <c r="V185" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W185" s="6">
         <v>0</v>
       </c>
       <c r="X185" s="7"/>
       <c r="Y185" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z185" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
@@ -12206,7 +12264,7 @@
         <v>29</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -12232,17 +12290,17 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
       <c r="V186" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W186" s="6">
         <v>0</v>
       </c>
       <c r="X186" s="7"/>
       <c r="Y186" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z186" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
@@ -12255,13 +12313,13 @@
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -12291,10 +12349,10 @@
         <v>10</v>
       </c>
       <c r="S187" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T187" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
@@ -12302,7 +12360,7 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="10"/>
       <c r="Z187" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
@@ -12318,7 +12376,7 @@
         <v>38</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -12344,19 +12402,19 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
       <c r="V188" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W188" s="6">
         <v>0</v>
       </c>
       <c r="X188" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y188" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z188" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
@@ -12372,7 +12430,7 @@
         <v>29</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -12398,17 +12456,17 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
       <c r="V189" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W189" s="6">
         <v>0</v>
       </c>
       <c r="X189" s="7"/>
       <c r="Y189" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z189" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
@@ -12424,7 +12482,7 @@
         <v>29</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -12450,17 +12508,17 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
       <c r="V190" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W190" s="6">
         <v>0</v>
       </c>
       <c r="X190" s="7"/>
       <c r="Y190" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z190" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
@@ -12473,13 +12531,13 @@
     </row>
     <row r="191" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -12509,10 +12567,10 @@
         <v>10</v>
       </c>
       <c r="S191" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T191" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
@@ -12520,7 +12578,7 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="10"/>
       <c r="Z191" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
@@ -12536,7 +12594,7 @@
         <v>38</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -12562,19 +12620,19 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
       <c r="V192" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W192" s="6">
         <v>0</v>
       </c>
       <c r="X192" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y192" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z192" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
@@ -12590,7 +12648,7 @@
         <v>29</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -12616,17 +12674,17 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
       <c r="V193" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W193" s="6">
         <v>0</v>
       </c>
       <c r="X193" s="7"/>
       <c r="Y193" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z193" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
@@ -12642,7 +12700,7 @@
         <v>29</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -12668,17 +12726,17 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
       <c r="V194" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W194" s="6">
         <v>0</v>
       </c>
       <c r="X194" s="7"/>
       <c r="Y194" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z194" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
@@ -12691,13 +12749,13 @@
     </row>
     <row r="195" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -12727,10 +12785,10 @@
         <v>10</v>
       </c>
       <c r="S195" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T195" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
@@ -12738,7 +12796,7 @@
       <c r="X195" s="4"/>
       <c r="Y195" s="10"/>
       <c r="Z195" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
@@ -12754,7 +12812,7 @@
         <v>38</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -12780,19 +12838,19 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
       <c r="V196" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W196" s="6">
         <v>0</v>
       </c>
       <c r="X196" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y196" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z196" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
@@ -12808,7 +12866,7 @@
         <v>29</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -12834,17 +12892,17 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
       <c r="V197" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W197" s="6">
         <v>0</v>
       </c>
       <c r="X197" s="7"/>
       <c r="Y197" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z197" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
@@ -12860,7 +12918,7 @@
         <v>29</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -12886,17 +12944,17 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
       <c r="V198" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W198" s="6">
         <v>0</v>
       </c>
       <c r="X198" s="7"/>
       <c r="Y198" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z198" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
@@ -12909,13 +12967,13 @@
     </row>
     <row r="199" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -12945,10 +13003,10 @@
         <v>10</v>
       </c>
       <c r="S199" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T199" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
@@ -12956,7 +13014,7 @@
       <c r="X199" s="4"/>
       <c r="Y199" s="10"/>
       <c r="Z199" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
@@ -12972,7 +13030,7 @@
         <v>38</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -12998,19 +13056,19 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
       <c r="V200" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W200" s="6">
         <v>0</v>
       </c>
       <c r="X200" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y200" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z200" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
@@ -13026,7 +13084,7 @@
         <v>29</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -13052,17 +13110,17 @@
       <c r="T201" s="4"/>
       <c r="U201" s="4"/>
       <c r="V201" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W201" s="6">
         <v>0</v>
       </c>
       <c r="X201" s="7"/>
       <c r="Y201" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z201" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA201" s="5"/>
       <c r="AB201" s="5"/>
@@ -13078,7 +13136,7 @@
         <v>29</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -13104,17 +13162,17 @@
       <c r="T202" s="4"/>
       <c r="U202" s="4"/>
       <c r="V202" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W202" s="6">
         <v>0</v>
       </c>
       <c r="X202" s="7"/>
       <c r="Y202" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z202" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA202" s="5"/>
       <c r="AB202" s="5"/>
@@ -13127,13 +13185,13 @@
     </row>
     <row r="203" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -13163,10 +13221,10 @@
         <v>10</v>
       </c>
       <c r="S203" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T203" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U203" s="4"/>
       <c r="V203" s="4"/>
@@ -13174,7 +13232,7 @@
       <c r="X203" s="4"/>
       <c r="Y203" s="10"/>
       <c r="Z203" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA203" s="5"/>
       <c r="AB203" s="5"/>
@@ -13190,7 +13248,7 @@
         <v>38</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -13216,19 +13274,19 @@
       <c r="T204" s="4"/>
       <c r="U204" s="4"/>
       <c r="V204" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W204" s="6">
         <v>0</v>
       </c>
       <c r="X204" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y204" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z204" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA204" s="5"/>
       <c r="AB204" s="5"/>
@@ -13244,7 +13302,7 @@
         <v>29</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -13270,17 +13328,17 @@
       <c r="T205" s="4"/>
       <c r="U205" s="4"/>
       <c r="V205" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W205" s="6">
         <v>0</v>
       </c>
       <c r="X205" s="7"/>
       <c r="Y205" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z205" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA205" s="5"/>
       <c r="AB205" s="5"/>
@@ -13296,7 +13354,7 @@
         <v>29</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -13322,17 +13380,17 @@
       <c r="T206" s="4"/>
       <c r="U206" s="4"/>
       <c r="V206" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W206" s="6">
         <v>0</v>
       </c>
       <c r="X206" s="7"/>
       <c r="Y206" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z206" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA206" s="5"/>
       <c r="AB206" s="5"/>
@@ -13345,13 +13403,13 @@
     </row>
     <row r="207" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -13381,10 +13439,10 @@
         <v>10</v>
       </c>
       <c r="S207" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T207" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U207" s="4"/>
       <c r="V207" s="4"/>
@@ -13392,7 +13450,7 @@
       <c r="X207" s="4"/>
       <c r="Y207" s="10"/>
       <c r="Z207" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA207" s="5"/>
       <c r="AB207" s="5"/>
@@ -13408,7 +13466,7 @@
         <v>38</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -13434,19 +13492,19 @@
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
       <c r="V208" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W208" s="6">
         <v>0</v>
       </c>
       <c r="X208" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y208" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z208" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
@@ -13462,7 +13520,7 @@
         <v>29</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -13488,17 +13546,17 @@
       <c r="T209" s="4"/>
       <c r="U209" s="4"/>
       <c r="V209" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W209" s="6">
         <v>0</v>
       </c>
       <c r="X209" s="7"/>
       <c r="Y209" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z209" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
@@ -13514,7 +13572,7 @@
         <v>29</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -13540,17 +13598,17 @@
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
       <c r="V210" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W210" s="6">
         <v>0</v>
       </c>
       <c r="X210" s="7"/>
       <c r="Y210" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z210" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA210" s="5"/>
       <c r="AB210" s="5"/>
@@ -13563,13 +13621,13 @@
     </row>
     <row r="211" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -13599,10 +13657,10 @@
         <v>10</v>
       </c>
       <c r="S211" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T211" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U211" s="4"/>
       <c r="V211" s="4"/>
@@ -13610,7 +13668,7 @@
       <c r="X211" s="4"/>
       <c r="Y211" s="10"/>
       <c r="Z211" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA211" s="5"/>
       <c r="AB211" s="5"/>
@@ -13626,7 +13684,7 @@
         <v>38</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -13652,19 +13710,19 @@
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
       <c r="V212" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W212" s="6">
         <v>0</v>
       </c>
       <c r="X212" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y212" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z212" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA212" s="5"/>
       <c r="AB212" s="5"/>
@@ -13680,7 +13738,7 @@
         <v>29</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -13706,17 +13764,17 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
       <c r="V213" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W213" s="6">
         <v>0</v>
       </c>
       <c r="X213" s="7"/>
       <c r="Y213" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z213" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA213" s="5"/>
       <c r="AB213" s="5"/>
@@ -13732,7 +13790,7 @@
         <v>29</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -13758,17 +13816,17 @@
       <c r="T214" s="4"/>
       <c r="U214" s="4"/>
       <c r="V214" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W214" s="6">
         <v>0</v>
       </c>
       <c r="X214" s="7"/>
       <c r="Y214" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z214" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA214" s="5"/>
       <c r="AB214" s="5"/>
@@ -13781,13 +13839,13 @@
     </row>
     <row r="215" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -13817,10 +13875,10 @@
         <v>10</v>
       </c>
       <c r="S215" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T215" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U215" s="4"/>
       <c r="V215" s="4"/>
@@ -13828,7 +13886,7 @@
       <c r="X215" s="4"/>
       <c r="Y215" s="10"/>
       <c r="Z215" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA215" s="5"/>
       <c r="AB215" s="5"/>
@@ -13844,7 +13902,7 @@
         <v>38</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -13870,19 +13928,19 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
       <c r="V216" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W216" s="6">
         <v>0</v>
       </c>
       <c r="X216" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y216" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z216" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA216" s="5"/>
       <c r="AB216" s="5"/>
@@ -13898,7 +13956,7 @@
         <v>29</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -13924,17 +13982,17 @@
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
       <c r="V217" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W217" s="6">
         <v>0</v>
       </c>
       <c r="X217" s="7"/>
       <c r="Y217" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z217" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA217" s="5"/>
       <c r="AB217" s="5"/>
@@ -13950,7 +14008,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -13976,17 +14034,17 @@
       <c r="T218" s="4"/>
       <c r="U218" s="4"/>
       <c r="V218" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W218" s="6">
         <v>0</v>
       </c>
       <c r="X218" s="7"/>
       <c r="Y218" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z218" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
@@ -13999,13 +14057,13 @@
     </row>
     <row r="219" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -14035,10 +14093,10 @@
         <v>10</v>
       </c>
       <c r="S219" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T219" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U219" s="4"/>
       <c r="V219" s="4"/>
@@ -14046,7 +14104,7 @@
       <c r="X219" s="4"/>
       <c r="Y219" s="10"/>
       <c r="Z219" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
@@ -14062,7 +14120,7 @@
         <v>38</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -14088,19 +14146,19 @@
       <c r="T220" s="4"/>
       <c r="U220" s="4"/>
       <c r="V220" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W220" s="6">
         <v>0</v>
       </c>
       <c r="X220" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y220" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z220" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA220" s="5"/>
       <c r="AB220" s="5"/>
@@ -14116,7 +14174,7 @@
         <v>29</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -14142,17 +14200,17 @@
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
       <c r="V221" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W221" s="6">
         <v>0</v>
       </c>
       <c r="X221" s="7"/>
       <c r="Y221" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z221" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA221" s="5"/>
       <c r="AB221" s="5"/>
@@ -14168,7 +14226,7 @@
         <v>29</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -14194,17 +14252,17 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
       <c r="V222" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W222" s="6">
         <v>0</v>
       </c>
       <c r="X222" s="7"/>
       <c r="Y222" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z222" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA222" s="5"/>
       <c r="AB222" s="5"/>
@@ -14217,13 +14275,13 @@
     </row>
     <row r="223" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -14253,10 +14311,10 @@
         <v>10</v>
       </c>
       <c r="S223" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T223" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U223" s="4"/>
       <c r="V223" s="4"/>
@@ -14264,7 +14322,7 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="10"/>
       <c r="Z223" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA223" s="5"/>
       <c r="AB223" s="5"/>
@@ -14280,7 +14338,7 @@
         <v>38</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -14306,19 +14364,19 @@
       <c r="T224" s="4"/>
       <c r="U224" s="4"/>
       <c r="V224" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W224" s="6">
         <v>0</v>
       </c>
       <c r="X224" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y224" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z224" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA224" s="5"/>
       <c r="AB224" s="5"/>
@@ -14334,7 +14392,7 @@
         <v>29</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -14360,17 +14418,17 @@
       <c r="T225" s="4"/>
       <c r="U225" s="4"/>
       <c r="V225" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W225" s="6">
         <v>0</v>
       </c>
       <c r="X225" s="7"/>
       <c r="Y225" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z225" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA225" s="5"/>
       <c r="AB225" s="5"/>
@@ -14386,7 +14444,7 @@
         <v>29</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -14412,17 +14470,17 @@
       <c r="T226" s="4"/>
       <c r="U226" s="4"/>
       <c r="V226" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W226" s="6">
         <v>0</v>
       </c>
       <c r="X226" s="7"/>
       <c r="Y226" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z226" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA226" s="5"/>
       <c r="AB226" s="5"/>
@@ -14435,13 +14493,13 @@
     </row>
     <row r="227" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -14471,10 +14529,10 @@
         <v>10</v>
       </c>
       <c r="S227" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T227" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
@@ -14482,7 +14540,7 @@
       <c r="X227" s="4"/>
       <c r="Y227" s="10"/>
       <c r="Z227" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA227" s="5"/>
       <c r="AB227" s="5"/>
@@ -14498,7 +14556,7 @@
         <v>38</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -14524,19 +14582,19 @@
       <c r="T228" s="4"/>
       <c r="U228" s="4"/>
       <c r="V228" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W228" s="6">
         <v>0</v>
       </c>
       <c r="X228" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y228" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z228" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA228" s="5"/>
       <c r="AB228" s="5"/>
@@ -14552,7 +14610,7 @@
         <v>29</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -14578,17 +14636,17 @@
       <c r="T229" s="4"/>
       <c r="U229" s="4"/>
       <c r="V229" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W229" s="6">
         <v>0</v>
       </c>
       <c r="X229" s="7"/>
       <c r="Y229" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z229" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA229" s="5"/>
       <c r="AB229" s="5"/>
@@ -14604,7 +14662,7 @@
         <v>29</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -14630,17 +14688,17 @@
       <c r="T230" s="4"/>
       <c r="U230" s="4"/>
       <c r="V230" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W230" s="6">
         <v>0</v>
       </c>
       <c r="X230" s="7"/>
       <c r="Y230" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z230" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA230" s="5"/>
       <c r="AB230" s="5"/>
@@ -14653,13 +14711,13 @@
     </row>
     <row r="231" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -14689,10 +14747,10 @@
         <v>10</v>
       </c>
       <c r="S231" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T231" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
@@ -14700,7 +14758,7 @@
       <c r="X231" s="4"/>
       <c r="Y231" s="10"/>
       <c r="Z231" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA231" s="5"/>
       <c r="AB231" s="5"/>
@@ -14716,7 +14774,7 @@
         <v>38</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -14742,19 +14800,19 @@
       <c r="T232" s="4"/>
       <c r="U232" s="4"/>
       <c r="V232" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W232" s="6">
         <v>0</v>
       </c>
       <c r="X232" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y232" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z232" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA232" s="5"/>
       <c r="AB232" s="5"/>
@@ -14770,7 +14828,7 @@
         <v>29</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -14796,17 +14854,17 @@
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
       <c r="V233" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W233" s="6">
         <v>0</v>
       </c>
       <c r="X233" s="7"/>
       <c r="Y233" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z233" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA233" s="5"/>
       <c r="AB233" s="5"/>
@@ -14822,7 +14880,7 @@
         <v>29</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -14848,17 +14906,17 @@
       <c r="T234" s="4"/>
       <c r="U234" s="4"/>
       <c r="V234" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W234" s="6">
         <v>0</v>
       </c>
       <c r="X234" s="7"/>
       <c r="Y234" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z234" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA234" s="5"/>
       <c r="AB234" s="5"/>
@@ -14871,13 +14929,13 @@
     </row>
     <row r="235" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -14907,10 +14965,10 @@
         <v>10</v>
       </c>
       <c r="S235" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T235" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U235" s="4"/>
       <c r="V235" s="4"/>
@@ -14918,7 +14976,7 @@
       <c r="X235" s="4"/>
       <c r="Y235" s="10"/>
       <c r="Z235" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
@@ -14934,7 +14992,7 @@
         <v>38</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -14960,19 +15018,19 @@
       <c r="T236" s="4"/>
       <c r="U236" s="4"/>
       <c r="V236" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W236" s="6">
         <v>0</v>
       </c>
       <c r="X236" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y236" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z236" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA236" s="5"/>
       <c r="AB236" s="5"/>
@@ -14988,7 +15046,7 @@
         <v>29</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -15014,17 +15072,17 @@
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
       <c r="V237" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W237" s="6">
         <v>0</v>
       </c>
       <c r="X237" s="7"/>
       <c r="Y237" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z237" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA237" s="5"/>
       <c r="AB237" s="5"/>
@@ -15040,7 +15098,7 @@
         <v>29</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -15066,17 +15124,17 @@
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
       <c r="V238" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W238" s="6">
         <v>0</v>
       </c>
       <c r="X238" s="7"/>
       <c r="Y238" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z238" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA238" s="5"/>
       <c r="AB238" s="5"/>
@@ -15089,13 +15147,13 @@
     </row>
     <row r="239" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -15125,10 +15183,10 @@
         <v>10</v>
       </c>
       <c r="S239" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T239" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U239" s="4"/>
       <c r="V239" s="4"/>
@@ -15136,7 +15194,7 @@
       <c r="X239" s="4"/>
       <c r="Y239" s="10"/>
       <c r="Z239" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA239" s="5"/>
       <c r="AB239" s="5"/>
@@ -15152,7 +15210,7 @@
         <v>38</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -15178,19 +15236,19 @@
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
       <c r="V240" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W240" s="6">
         <v>0</v>
       </c>
       <c r="X240" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y240" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z240" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA240" s="5"/>
       <c r="AB240" s="5"/>
@@ -15206,7 +15264,7 @@
         <v>29</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -15232,17 +15290,17 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
       <c r="V241" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W241" s="6">
         <v>0</v>
       </c>
       <c r="X241" s="7"/>
       <c r="Y241" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z241" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA241" s="5"/>
       <c r="AB241" s="5"/>
@@ -15258,7 +15316,7 @@
         <v>29</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -15284,17 +15342,17 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
       <c r="V242" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W242" s="6">
         <v>0</v>
       </c>
       <c r="X242" s="7"/>
       <c r="Y242" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z242" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
@@ -15307,13 +15365,13 @@
     </row>
     <row r="243" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -15343,10 +15401,10 @@
         <v>10</v>
       </c>
       <c r="S243" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T243" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U243" s="4"/>
       <c r="V243" s="4"/>
@@ -15354,7 +15412,7 @@
       <c r="X243" s="4"/>
       <c r="Y243" s="10"/>
       <c r="Z243" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA243" s="5"/>
       <c r="AB243" s="5"/>
@@ -15370,7 +15428,7 @@
         <v>38</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -15396,19 +15454,19 @@
       <c r="T244" s="4"/>
       <c r="U244" s="4"/>
       <c r="V244" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W244" s="6">
         <v>0</v>
       </c>
       <c r="X244" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y244" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z244" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA244" s="5"/>
       <c r="AB244" s="5"/>
@@ -15424,7 +15482,7 @@
         <v>29</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -15450,17 +15508,17 @@
       <c r="T245" s="4"/>
       <c r="U245" s="4"/>
       <c r="V245" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W245" s="6">
         <v>0</v>
       </c>
       <c r="X245" s="7"/>
       <c r="Y245" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z245" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA245" s="5"/>
       <c r="AB245" s="5"/>
@@ -15476,7 +15534,7 @@
         <v>29</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -15502,17 +15560,17 @@
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
       <c r="V246" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W246" s="6">
         <v>0</v>
       </c>
       <c r="X246" s="7"/>
       <c r="Y246" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z246" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA246" s="5"/>
       <c r="AB246" s="5"/>
@@ -15525,13 +15583,13 @@
     </row>
     <row r="247" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -15561,10 +15619,10 @@
         <v>10</v>
       </c>
       <c r="S247" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T247" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U247" s="4"/>
       <c r="V247" s="4"/>
@@ -15572,7 +15630,7 @@
       <c r="X247" s="4"/>
       <c r="Y247" s="10"/>
       <c r="Z247" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA247" s="5"/>
       <c r="AB247" s="5"/>
@@ -15585,13 +15643,15 @@
     </row>
     <row r="248" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="D248" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
@@ -15613,22 +15673,22 @@
       <c r="S248" s="4"/>
       <c r="T248" s="4"/>
       <c r="U248" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="V248" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="W248" s="6">
         <v>1</v>
       </c>
       <c r="X248" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y248" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Z248" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA248" s="5"/>
       <c r="AB248" s="5"/>
@@ -15644,11 +15704,11 @@
         <v>29</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -15672,14 +15732,14 @@
       <c r="T249" s="4"/>
       <c r="U249" s="4"/>
       <c r="V249" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W249" s="9">
         <v>0</v>
       </c>
       <c r="X249" s="3"/>
       <c r="Y249" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z249" s="5"/>
       <c r="AA249" s="5"/>
@@ -15696,11 +15756,11 @@
         <v>29</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -15724,14 +15784,14 @@
       <c r="T250" s="4"/>
       <c r="U250" s="4"/>
       <c r="V250" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W250" s="9">
         <v>0</v>
       </c>
       <c r="X250" s="3"/>
       <c r="Y250" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z250" s="5"/>
       <c r="AA250" s="5"/>
@@ -15961,23 +16021,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -16004,17 +16064,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Switchboard_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Switchboard_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC7D8DE-CAA5-4218-B7BF-CE08DDC20226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280B0C71-9074-4724-9294-3AEC3BB26B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="5325" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="4455" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区操作盤_UIList" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <t>1R</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>物理てこ</t>
   </si>
   <si>
     <t>0,1</t>
@@ -1071,7 +1071,7 @@
     <t>P51_PG</t>
   </si>
   <si>
-    <t>転てつ器</t>
+    <t>転てつ器表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -1410,7 +1410,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>駅扱切換てこ</t>
+    <t>駅扱切換表示灯</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Switchboard_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Switchboard_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E343FD-9A3F-483B-9EBD-F3E7166350AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70196003-1C3A-4BF4-8EAA-05F0B3FF4B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4095" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="5100" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区操作盤_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="367">
   <si>
     <t>Type</t>
   </si>
@@ -609,6 +609,9 @@
     <t>物理てこ</t>
   </si>
   <si>
+    <t>TH66S_1</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -636,12 +639,18 @@
     <t>2R</t>
   </si>
   <si>
+    <t>TH66S_2</t>
+  </si>
+  <si>
     <t>2R_Label</t>
   </si>
   <si>
     <t>3L</t>
   </si>
   <si>
+    <t>TH66S_3</t>
+  </si>
+  <si>
     <t>-1,0</t>
   </si>
   <si>
@@ -657,18 +666,27 @@
     <t>4L</t>
   </si>
   <si>
+    <t>TH66S_4</t>
+  </si>
+  <si>
     <t>4L_Label</t>
   </si>
   <si>
     <t>5L</t>
   </si>
   <si>
+    <t>TH66S_5</t>
+  </si>
+  <si>
     <t>5L_Label</t>
   </si>
   <si>
     <t>11R</t>
   </si>
   <si>
+    <t>TH66S_11</t>
+  </si>
+  <si>
     <t>Image/Lever/Lever_Green_N.png,Image/Lever/Lever_Green_R.png</t>
   </si>
   <si>
@@ -681,6 +699,9 @@
     <t>12L</t>
   </si>
   <si>
+    <t>TH66S_12</t>
+  </si>
+  <si>
     <t>Image/Lever/Lever_Green_L.png,Image/Lever/Lever_Green_N.png</t>
   </si>
   <si>
@@ -690,18 +711,27 @@
     <t>13R</t>
   </si>
   <si>
+    <t>TH66S_13</t>
+  </si>
+  <si>
     <t>13R_Label</t>
   </si>
   <si>
     <t>14R</t>
   </si>
   <si>
+    <t>TH66S_14</t>
+  </si>
+  <si>
     <t>14R_Label</t>
   </si>
   <si>
     <t>15L</t>
   </si>
   <si>
+    <t>TH66S_15</t>
+  </si>
+  <si>
     <t>15L_Label</t>
   </si>
   <si>
@@ -723,6 +753,9 @@
     <t>16L</t>
   </si>
   <si>
+    <t>TH66S_16</t>
+  </si>
+  <si>
     <t>16L_Label</t>
   </si>
   <si>
@@ -951,6 +984,9 @@
     <t>着点ボタン</t>
   </si>
   <si>
+    <t>TH66S_AP</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -963,24 +999,36 @@
     <t>B</t>
   </si>
   <si>
+    <t>TH66S_BP</t>
+  </si>
+  <si>
     <t>B_Label</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>TH66S_CP</t>
+  </si>
+  <si>
     <t>C_Label</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
+    <t>TH66S_DP</t>
+  </si>
+  <si>
     <t>D_Label</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>TH66S_EP</t>
+  </si>
+  <si>
     <t>E_Label</t>
   </si>
   <si>
@@ -1041,6 +1089,9 @@
     <t>9_Label</t>
   </si>
   <si>
+    <t>TH66S_13P</t>
+  </si>
+  <si>
     <t>13_Label</t>
   </si>
   <si>
@@ -1086,6 +1137,12 @@
     <t>警報下り接近</t>
   </si>
   <si>
+    <t>W51</t>
+  </si>
+  <si>
+    <t>TH66S_51</t>
+  </si>
+  <si>
     <t>P51</t>
   </si>
   <si>
@@ -1101,100 +1158,160 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P51_PG</t>
+    <t>W51_PG</t>
   </si>
   <si>
     <t>転てつ器表示灯</t>
   </si>
   <si>
+    <t>TH66S_W51</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
     <t>G,Y,R,PG,PYは灯色</t>
   </si>
   <si>
-    <t>P51_PY</t>
+    <t>W51_PY</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P51_Label</t>
+    <t>W51_Label</t>
+  </si>
+  <si>
+    <t>W52</t>
+  </si>
+  <si>
+    <t>TH66S_52</t>
   </si>
   <si>
     <t>P52</t>
   </si>
   <si>
-    <t>P52_PG</t>
-  </si>
-  <si>
-    <t>P52_PY</t>
-  </si>
-  <si>
-    <t>P52_Label</t>
+    <t>W52_PG</t>
+  </si>
+  <si>
+    <t>TH66S_W52</t>
+  </si>
+  <si>
+    <t>W52_PY</t>
+  </si>
+  <si>
+    <t>W52_Label</t>
+  </si>
+  <si>
+    <t>W53</t>
+  </si>
+  <si>
+    <t>TH66S_53</t>
   </si>
   <si>
     <t>P53</t>
   </si>
   <si>
-    <t>P53_PG</t>
-  </si>
-  <si>
-    <t>P53_PY</t>
-  </si>
-  <si>
-    <t>P53_Label</t>
+    <t>W53_PG</t>
+  </si>
+  <si>
+    <t>TH66S_W53</t>
+  </si>
+  <si>
+    <t>W53_PY</t>
+  </si>
+  <si>
+    <t>W53_Label</t>
+  </si>
+  <si>
+    <t>W54</t>
+  </si>
+  <si>
+    <t>TH66S_54</t>
   </si>
   <si>
     <t>P54</t>
   </si>
   <si>
-    <t>P54_PG</t>
-  </si>
-  <si>
-    <t>P54_PY</t>
-  </si>
-  <si>
-    <t>P54_Label</t>
+    <t>W54_PG</t>
+  </si>
+  <si>
+    <t>TH66S_W54</t>
+  </si>
+  <si>
+    <t>W54_PY</t>
+  </si>
+  <si>
+    <t>W54_Label</t>
+  </si>
+  <si>
+    <t>W55</t>
+  </si>
+  <si>
+    <t>TH66S_55</t>
   </si>
   <si>
     <t>P55</t>
   </si>
   <si>
-    <t>P55_PG</t>
-  </si>
-  <si>
-    <t>P55_PY</t>
-  </si>
-  <si>
-    <t>P55_Label</t>
+    <t>W55_PG</t>
+  </si>
+  <si>
+    <t>TH66S_W55</t>
+  </si>
+  <si>
+    <t>W55_PY</t>
+  </si>
+  <si>
+    <t>W55_Label</t>
+  </si>
+  <si>
+    <t>W56</t>
+  </si>
+  <si>
+    <t>TH66S_56</t>
   </si>
   <si>
     <t>P56</t>
   </si>
   <si>
-    <t>P56_PG</t>
-  </si>
-  <si>
-    <t>P56_PY</t>
-  </si>
-  <si>
-    <t>P56_Label</t>
+    <t>W56_PG</t>
+  </si>
+  <si>
+    <t>TH66S_W56</t>
+  </si>
+  <si>
+    <t>W56_PY</t>
+  </si>
+  <si>
+    <t>W56_Label</t>
+  </si>
+  <si>
+    <t>W57</t>
+  </si>
+  <si>
+    <t>TH66S_57</t>
   </si>
   <si>
     <t>P57</t>
   </si>
   <si>
-    <t>P57_PG</t>
-  </si>
-  <si>
-    <t>P57_PY</t>
-  </si>
-  <si>
-    <t>P57_Label</t>
-  </si>
-  <si>
-    <t>P61</t>
+    <t>W57_PG</t>
+  </si>
+  <si>
+    <t>TH66S_W57</t>
+  </si>
+  <si>
+    <t>W57_PY</t>
+  </si>
+  <si>
+    <t>W57_Label</t>
+  </si>
+  <si>
+    <t>W61</t>
   </si>
   <si>
     <t>Image/Lever_dummy/LeverBase_NCR.png</t>
@@ -1203,223 +1320,223 @@
     <t>Image/Lever_dummy/Lever_Black_L.png,Image/Lever_dummy/Lever_Black_N.png,Image/Lever_dummy/Lever_Black_R.png</t>
   </si>
   <si>
-    <t>P61_PG</t>
+    <t>W61_PG</t>
   </si>
   <si>
     <t>Image/Light_dummy/N.png,Image/Light_dummy/PG.png</t>
   </si>
   <si>
-    <t>P61_PY</t>
+    <t>W61_PY</t>
   </si>
   <si>
     <t>Image/Light_dummy/N.png,Image/Light_dummy/PY.png</t>
   </si>
   <si>
-    <t>P61_Label</t>
-  </si>
-  <si>
-    <t>P62</t>
-  </si>
-  <si>
-    <t>P62_PG</t>
-  </si>
-  <si>
-    <t>P62_PY</t>
-  </si>
-  <si>
-    <t>P62_Label</t>
-  </si>
-  <si>
-    <t>P63</t>
-  </si>
-  <si>
-    <t>P63_PG</t>
-  </si>
-  <si>
-    <t>P63_PY</t>
-  </si>
-  <si>
-    <t>P63_Label</t>
-  </si>
-  <si>
-    <t>P64</t>
-  </si>
-  <si>
-    <t>P64_PG</t>
-  </si>
-  <si>
-    <t>P64_PY</t>
-  </si>
-  <si>
-    <t>P64_Label</t>
-  </si>
-  <si>
-    <t>P65</t>
-  </si>
-  <si>
-    <t>P65_PG</t>
-  </si>
-  <si>
-    <t>P65_PY</t>
-  </si>
-  <si>
-    <t>P65_Label</t>
-  </si>
-  <si>
-    <t>P66</t>
-  </si>
-  <si>
-    <t>P66_PG</t>
-  </si>
-  <si>
-    <t>P66_PY</t>
-  </si>
-  <si>
-    <t>P66_Label</t>
-  </si>
-  <si>
-    <t>P67</t>
-  </si>
-  <si>
-    <t>P67_PG</t>
-  </si>
-  <si>
-    <t>P67_PY</t>
-  </si>
-  <si>
-    <t>P67_Label</t>
-  </si>
-  <si>
-    <t>P68</t>
-  </si>
-  <si>
-    <t>P68_PG</t>
-  </si>
-  <si>
-    <t>P68_PY</t>
-  </si>
-  <si>
-    <t>P68_Label</t>
-  </si>
-  <si>
-    <t>P69</t>
-  </si>
-  <si>
-    <t>P69_PG</t>
-  </si>
-  <si>
-    <t>P69_PY</t>
-  </si>
-  <si>
-    <t>P69_Label</t>
-  </si>
-  <si>
-    <t>P70</t>
-  </si>
-  <si>
-    <t>P70_PG</t>
-  </si>
-  <si>
-    <t>P70_PY</t>
-  </si>
-  <si>
-    <t>P70_Label</t>
-  </si>
-  <si>
-    <t>P71</t>
-  </si>
-  <si>
-    <t>P71_PG</t>
-  </si>
-  <si>
-    <t>P71_PY</t>
-  </si>
-  <si>
-    <t>P71_Label</t>
-  </si>
-  <si>
-    <t>P72</t>
-  </si>
-  <si>
-    <t>P72_PG</t>
-  </si>
-  <si>
-    <t>P72_PY</t>
-  </si>
-  <si>
-    <t>P72_Label</t>
-  </si>
-  <si>
-    <t>P73</t>
-  </si>
-  <si>
-    <t>P73_PG</t>
-  </si>
-  <si>
-    <t>P73_PY</t>
-  </si>
-  <si>
-    <t>P73_Label</t>
-  </si>
-  <si>
-    <t>P74</t>
-  </si>
-  <si>
-    <t>P74_PG</t>
-  </si>
-  <si>
-    <t>P74_PY</t>
-  </si>
-  <si>
-    <t>P74_Label</t>
-  </si>
-  <si>
-    <t>P75</t>
-  </si>
-  <si>
-    <t>P75_PG</t>
-  </si>
-  <si>
-    <t>P75_PY</t>
-  </si>
-  <si>
-    <t>P75_Label</t>
-  </si>
-  <si>
-    <t>P76</t>
-  </si>
-  <si>
-    <t>P76_PG</t>
-  </si>
-  <si>
-    <t>P76_PY</t>
-  </si>
-  <si>
-    <t>P76_Label</t>
-  </si>
-  <si>
-    <t>P77</t>
-  </si>
-  <si>
-    <t>P77_PG</t>
-  </si>
-  <si>
-    <t>P77_PY</t>
-  </si>
-  <si>
-    <t>P77_Label</t>
-  </si>
-  <si>
-    <t>P78</t>
-  </si>
-  <si>
-    <t>P78_PG</t>
-  </si>
-  <si>
-    <t>P78_PY</t>
-  </si>
-  <si>
-    <t>P78_Label</t>
+    <t>W61_Label</t>
+  </si>
+  <si>
+    <t>W62</t>
+  </si>
+  <si>
+    <t>W62_PG</t>
+  </si>
+  <si>
+    <t>W62_PY</t>
+  </si>
+  <si>
+    <t>W62_Label</t>
+  </si>
+  <si>
+    <t>W63</t>
+  </si>
+  <si>
+    <t>W63_PG</t>
+  </si>
+  <si>
+    <t>W63_PY</t>
+  </si>
+  <si>
+    <t>W63_Label</t>
+  </si>
+  <si>
+    <t>W64</t>
+  </si>
+  <si>
+    <t>W64_PG</t>
+  </si>
+  <si>
+    <t>W64_PY</t>
+  </si>
+  <si>
+    <t>W64_Label</t>
+  </si>
+  <si>
+    <t>W65</t>
+  </si>
+  <si>
+    <t>W65_PG</t>
+  </si>
+  <si>
+    <t>W65_PY</t>
+  </si>
+  <si>
+    <t>W65_Label</t>
+  </si>
+  <si>
+    <t>W66</t>
+  </si>
+  <si>
+    <t>W66_PG</t>
+  </si>
+  <si>
+    <t>W66_PY</t>
+  </si>
+  <si>
+    <t>W66_Label</t>
+  </si>
+  <si>
+    <t>W67</t>
+  </si>
+  <si>
+    <t>W67_PG</t>
+  </si>
+  <si>
+    <t>W67_PY</t>
+  </si>
+  <si>
+    <t>W67_Label</t>
+  </si>
+  <si>
+    <t>W68</t>
+  </si>
+  <si>
+    <t>W68_PG</t>
+  </si>
+  <si>
+    <t>W68_PY</t>
+  </si>
+  <si>
+    <t>W68_Label</t>
+  </si>
+  <si>
+    <t>W69</t>
+  </si>
+  <si>
+    <t>W69_PG</t>
+  </si>
+  <si>
+    <t>W69_PY</t>
+  </si>
+  <si>
+    <t>W69_Label</t>
+  </si>
+  <si>
+    <t>W70</t>
+  </si>
+  <si>
+    <t>W70_PG</t>
+  </si>
+  <si>
+    <t>W70_PY</t>
+  </si>
+  <si>
+    <t>W70_Label</t>
+  </si>
+  <si>
+    <t>W71</t>
+  </si>
+  <si>
+    <t>W71_PG</t>
+  </si>
+  <si>
+    <t>W71_PY</t>
+  </si>
+  <si>
+    <t>W71_Label</t>
+  </si>
+  <si>
+    <t>W72</t>
+  </si>
+  <si>
+    <t>W72_PG</t>
+  </si>
+  <si>
+    <t>W72_PY</t>
+  </si>
+  <si>
+    <t>W72_Label</t>
+  </si>
+  <si>
+    <t>W73</t>
+  </si>
+  <si>
+    <t>W73_PG</t>
+  </si>
+  <si>
+    <t>W73_PY</t>
+  </si>
+  <si>
+    <t>W73_Label</t>
+  </si>
+  <si>
+    <t>W74</t>
+  </si>
+  <si>
+    <t>W74_PG</t>
+  </si>
+  <si>
+    <t>W74_PY</t>
+  </si>
+  <si>
+    <t>W74_Label</t>
+  </si>
+  <si>
+    <t>W75</t>
+  </si>
+  <si>
+    <t>W75_PG</t>
+  </si>
+  <si>
+    <t>W75_PY</t>
+  </si>
+  <si>
+    <t>W75_Label</t>
+  </si>
+  <si>
+    <t>W76</t>
+  </si>
+  <si>
+    <t>W76_PG</t>
+  </si>
+  <si>
+    <t>W76_PY</t>
+  </si>
+  <si>
+    <t>W76_Label</t>
+  </si>
+  <si>
+    <t>W77</t>
+  </si>
+  <si>
+    <t>W77_PG</t>
+  </si>
+  <si>
+    <t>W77_PY</t>
+  </si>
+  <si>
+    <t>W77_Label</t>
+  </si>
+  <si>
+    <t>W78</t>
+  </si>
+  <si>
+    <t>W78_PG</t>
+  </si>
+  <si>
+    <t>W78_PY</t>
+  </si>
+  <si>
+    <t>W78_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -1459,9 +1576,6 @@
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>Retsuban</t>
@@ -1787,7 +1901,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -2105,7 +2221,9 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2131,19 +2249,19 @@
         <v>41</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="6">
         <v>0</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -2156,10 +2274,10 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>41</v>
@@ -2194,10 +2312,10 @@
         <v>10</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W7" s="4" t="s">
         <v>41</v>
@@ -2221,13 +2339,15 @@
         <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2250,19 +2370,19 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="6">
         <v>0</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -2276,13 +2396,13 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2314,13 +2434,13 @@
         <v>10</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -2341,13 +2461,15 @@
         <v>40</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2370,19 +2492,19 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="6">
         <v>0</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -2396,13 +2518,13 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2434,13 +2556,13 @@
         <v>10</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -2461,13 +2583,15 @@
         <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2490,19 +2614,19 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y12" s="6">
         <v>0</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -2516,13 +2640,13 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2554,13 +2678,13 @@
         <v>10</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -2581,13 +2705,15 @@
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2610,19 +2736,19 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y14" s="6">
         <v>0</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2636,13 +2762,13 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2674,13 +2800,13 @@
         <v>10</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -2701,13 +2827,15 @@
         <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2730,22 +2858,22 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y16" s="6">
         <v>0</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -2758,13 +2886,13 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2796,13 +2924,13 @@
         <v>10</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -2823,13 +2951,15 @@
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2852,19 +2982,19 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="6">
         <v>0</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -2878,13 +3008,13 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2916,13 +3046,13 @@
         <v>10</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -2943,13 +3073,15 @@
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2972,19 +3104,19 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y20" s="6">
         <v>0</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -2998,13 +3130,13 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -3036,13 +3168,13 @@
         <v>10</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -3063,13 +3195,15 @@
         <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -3092,19 +3226,19 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y22" s="6">
         <v>0</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA22" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
@@ -3118,13 +3252,13 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3156,13 +3290,13 @@
         <v>10</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -3183,13 +3317,15 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -3212,19 +3348,19 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="6">
         <v>0</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA24" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
@@ -3238,13 +3374,13 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3276,13 +3412,13 @@
         <v>10</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -3303,7 +3439,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
@@ -3332,22 +3468,22 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="X26" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y26" s="6">
         <v>0</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
@@ -3360,13 +3496,13 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3392,19 +3528,19 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="T27" s="9">
         <v>10</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -3425,13 +3561,15 @@
         <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3454,19 +3592,19 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y28" s="6">
         <v>0</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
@@ -3480,13 +3618,13 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3518,13 +3656,13 @@
         <v>10</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -3545,7 +3683,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
@@ -3574,19 +3712,19 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="X30" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y30" s="6">
         <v>0</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
@@ -3600,13 +3738,13 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3632,19 +3770,19 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="T31" s="9">
         <v>10</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -3665,7 +3803,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3693,19 +3831,19 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y32" s="6">
         <v>0</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -3718,13 +3856,13 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3756,10 +3894,10 @@
         <v>10</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
@@ -3767,7 +3905,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
@@ -3783,7 +3921,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3811,19 +3949,19 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y34" s="6">
         <v>0</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -3836,13 +3974,13 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3874,10 +4012,10 @@
         <v>10</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -3885,7 +4023,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -3901,7 +4039,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3929,19 +4067,19 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y36" s="6">
         <v>0</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -3954,13 +4092,13 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3992,10 +4130,10 @@
         <v>10</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
@@ -4003,7 +4141,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
@@ -4019,7 +4157,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -4047,19 +4185,19 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y38" s="6">
         <v>0</v>
       </c>
       <c r="Z38" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA38" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -4072,13 +4210,13 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -4110,10 +4248,10 @@
         <v>10</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V39" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -4121,7 +4259,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
@@ -4137,7 +4275,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -4165,19 +4303,19 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y40" s="6">
         <v>0</v>
       </c>
       <c r="Z40" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA40" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
@@ -4190,13 +4328,13 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4228,10 +4366,10 @@
         <v>10</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V41" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
@@ -4239,7 +4377,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -4255,7 +4393,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -4283,19 +4421,19 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y42" s="6">
         <v>0</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA42" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
@@ -4308,13 +4446,13 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4346,10 +4484,10 @@
         <v>10</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
@@ -4357,7 +4495,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="10"/>
       <c r="AB43" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -4373,7 +4511,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -4401,19 +4539,19 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y44" s="6">
         <v>0</v>
       </c>
       <c r="Z44" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
@@ -4426,13 +4564,13 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4464,10 +4602,10 @@
         <v>10</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
@@ -4475,7 +4613,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
@@ -4491,7 +4629,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -4519,19 +4657,19 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y46" s="6">
         <v>0</v>
       </c>
       <c r="Z46" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA46" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB46" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
@@ -4544,13 +4682,13 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4582,10 +4720,10 @@
         <v>10</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
@@ -4593,7 +4731,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="10"/>
       <c r="AB47" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
@@ -4609,7 +4747,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -4637,19 +4775,19 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y48" s="6">
         <v>0</v>
       </c>
       <c r="Z48" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA48" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB48" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
@@ -4662,13 +4800,13 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4700,10 +4838,10 @@
         <v>10</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V49" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
@@ -4711,7 +4849,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="10"/>
       <c r="AB49" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -4727,7 +4865,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -4755,19 +4893,19 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y50" s="6">
         <v>0</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA50" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB50" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
@@ -4780,13 +4918,13 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4818,10 +4956,10 @@
         <v>10</v>
       </c>
       <c r="U51" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V51" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
@@ -4829,7 +4967,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -4845,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -4873,19 +5011,19 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y52" s="6">
         <v>0</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA52" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB52" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -4898,13 +5036,13 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4936,10 +5074,10 @@
         <v>10</v>
       </c>
       <c r="U53" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V53" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
@@ -4947,7 +5085,7 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -4963,7 +5101,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -4991,19 +5129,19 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y54" s="6">
         <v>0</v>
       </c>
       <c r="Z54" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA54" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB54" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
@@ -5016,13 +5154,13 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -5054,10 +5192,10 @@
         <v>10</v>
       </c>
       <c r="U55" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V55" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
@@ -5065,7 +5203,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
@@ -5081,7 +5219,7 @@
         <v>40</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -5109,19 +5247,19 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y56" s="6">
         <v>0</v>
       </c>
       <c r="Z56" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA56" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -5134,13 +5272,13 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -5172,10 +5310,10 @@
         <v>10</v>
       </c>
       <c r="U57" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V57" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -5183,7 +5321,7 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
@@ -5199,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -5227,19 +5365,19 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y58" s="6">
         <v>0</v>
       </c>
       <c r="Z58" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA58" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB58" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
@@ -5252,13 +5390,13 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5284,16 +5422,16 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="9" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="T59" s="9">
         <v>10</v>
       </c>
       <c r="U59" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V59" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
@@ -5301,7 +5439,7 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
@@ -5317,7 +5455,7 @@
         <v>40</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -5345,19 +5483,19 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y60" s="6">
         <v>0</v>
       </c>
       <c r="Z60" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA60" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
@@ -5370,13 +5508,13 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5408,10 +5546,10 @@
         <v>10</v>
       </c>
       <c r="U61" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V61" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -5419,7 +5557,7 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
@@ -5435,7 +5573,7 @@
         <v>40</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5463,19 +5601,19 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y62" s="6">
         <v>0</v>
       </c>
       <c r="Z62" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA62" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB62" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
@@ -5488,13 +5626,13 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5520,16 +5658,16 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="T63" s="9">
         <v>10</v>
       </c>
       <c r="U63" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V63" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
@@ -5537,7 +5675,7 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="10"/>
       <c r="AB63" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -5553,7 +5691,7 @@
         <v>40</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -5581,19 +5719,19 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y64" s="6">
         <v>0</v>
       </c>
       <c r="Z64" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA64" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB64" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
@@ -5606,13 +5744,13 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5644,10 +5782,10 @@
         <v>10</v>
       </c>
       <c r="U65" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V65" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
@@ -5655,7 +5793,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
@@ -5671,7 +5809,7 @@
         <v>40</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -5699,19 +5837,19 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y66" s="6">
         <v>0</v>
       </c>
       <c r="Z66" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA66" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB66" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
@@ -5724,13 +5862,13 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5756,16 +5894,16 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="9" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="T67" s="9">
         <v>10</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V67" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
@@ -5773,7 +5911,7 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="10"/>
       <c r="AB67" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
@@ -5789,7 +5927,7 @@
         <v>40</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -5817,19 +5955,19 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y68" s="6">
         <v>0</v>
       </c>
       <c r="Z68" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA68" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5842,13 +5980,13 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5880,10 +6018,10 @@
         <v>10</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V69" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -5891,7 +6029,7 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
@@ -5907,7 +6045,7 @@
         <v>40</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -5935,19 +6073,19 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y70" s="6">
         <v>0</v>
       </c>
       <c r="Z70" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA70" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5960,13 +6098,13 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -5998,10 +6136,10 @@
         <v>10</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V71" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
@@ -6009,7 +6147,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -6025,7 +6163,7 @@
         <v>40</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -6053,19 +6191,19 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y72" s="6">
         <v>0</v>
       </c>
       <c r="Z72" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA72" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB72" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
@@ -6078,13 +6216,13 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -6116,10 +6254,10 @@
         <v>10</v>
       </c>
       <c r="U73" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V73" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
@@ -6127,7 +6265,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="10"/>
       <c r="AB73" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
@@ -6143,7 +6281,7 @@
         <v>40</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6171,19 +6309,19 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y74" s="6">
         <v>0</v>
       </c>
       <c r="Z74" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA74" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB74" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
@@ -6196,13 +6334,13 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -6234,10 +6372,10 @@
         <v>10</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
@@ -6245,7 +6383,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="10"/>
       <c r="AB75" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
@@ -6261,7 +6399,7 @@
         <v>40</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6289,19 +6427,19 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y76" s="6">
         <v>0</v>
       </c>
       <c r="Z76" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA76" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB76" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
@@ -6314,13 +6452,13 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -6352,10 +6490,10 @@
         <v>10</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V77" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
@@ -6363,7 +6501,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="10"/>
       <c r="AB77" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
@@ -6379,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6407,19 +6545,19 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y78" s="6">
         <v>0</v>
       </c>
       <c r="Z78" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA78" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB78" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
@@ -6432,13 +6570,13 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -6464,16 +6602,16 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="9" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="T79" s="9">
         <v>10</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V79" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
@@ -6481,7 +6619,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="10"/>
       <c r="AB79" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
@@ -6497,7 +6635,7 @@
         <v>40</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6525,19 +6663,19 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y80" s="6">
         <v>0</v>
       </c>
       <c r="Z80" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA80" s="8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
@@ -6550,13 +6688,13 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -6588,10 +6726,10 @@
         <v>10</v>
       </c>
       <c r="U81" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V81" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
@@ -6599,7 +6737,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="10"/>
       <c r="AB81" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
@@ -6615,7 +6753,7 @@
         <v>40</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6643,19 +6781,19 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y82" s="6">
         <v>0</v>
       </c>
       <c r="Z82" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA82" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB82" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -6668,13 +6806,13 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -6700,16 +6838,16 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="T83" s="9">
         <v>10</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V83" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
@@ -6717,7 +6855,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="10"/>
       <c r="AB83" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
@@ -6733,7 +6871,7 @@
         <v>40</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6761,19 +6899,19 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y84" s="6">
         <v>0</v>
       </c>
       <c r="Z84" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA84" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
@@ -6786,13 +6924,13 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -6824,10 +6962,10 @@
         <v>10</v>
       </c>
       <c r="U85" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V85" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
@@ -6835,7 +6973,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="10"/>
       <c r="AB85" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
@@ -6851,7 +6989,7 @@
         <v>40</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6879,19 +7017,19 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y86" s="6">
         <v>0</v>
       </c>
       <c r="Z86" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA86" s="8" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AB86" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
@@ -6904,13 +7042,13 @@
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6936,16 +7074,16 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="T87" s="9">
         <v>10</v>
       </c>
       <c r="U87" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V87" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
@@ -6953,7 +7091,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="10"/>
       <c r="AB87" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
@@ -6966,16 +7104,18 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E88" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -6998,19 +7138,19 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="X88" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y88" s="6">
         <v>0</v>
       </c>
       <c r="Z88" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AA88" s="8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
@@ -7024,13 +7164,13 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="4"/>
@@ -7056,19 +7196,19 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="T89" s="9">
         <v>10</v>
       </c>
       <c r="U89" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V89" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W89" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
@@ -7086,16 +7226,18 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -7118,19 +7260,19 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="X90" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y90" s="6">
         <v>0</v>
       </c>
       <c r="Z90" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AA90" s="8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
@@ -7144,13 +7286,13 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="4"/>
@@ -7176,19 +7318,19 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="T91" s="9">
         <v>10</v>
       </c>
       <c r="U91" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V91" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W91" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
@@ -7206,16 +7348,18 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -7238,19 +7382,19 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="X92" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y92" s="6">
         <v>0</v>
       </c>
       <c r="Z92" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AA92" s="8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
@@ -7264,13 +7408,13 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="4"/>
@@ -7296,19 +7440,19 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="6" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="T93" s="9">
         <v>10</v>
       </c>
       <c r="U93" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V93" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W93" s="6" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
@@ -7326,16 +7470,18 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E94" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -7358,19 +7504,19 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X94" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y94" s="6">
         <v>0</v>
       </c>
       <c r="Z94" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AA94" s="8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
@@ -7384,13 +7530,13 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="4"/>
@@ -7416,19 +7562,19 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="T95" s="9">
         <v>10</v>
       </c>
       <c r="U95" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V95" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W95" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
@@ -7446,16 +7592,18 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E96" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -7478,19 +7626,19 @@
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
       <c r="W96" s="4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="X96" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y96" s="6">
         <v>0</v>
       </c>
       <c r="Z96" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AA96" s="8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
@@ -7504,13 +7652,13 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="4"/>
@@ -7536,19 +7684,19 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="T97" s="9">
         <v>10</v>
       </c>
       <c r="U97" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V97" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W97" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
@@ -7566,10 +7714,10 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -7597,19 +7745,19 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y98" s="6">
         <v>0</v>
       </c>
       <c r="Z98" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA98" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB98" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
@@ -7622,13 +7770,13 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -7654,16 +7802,16 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="9" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="T99" s="9">
         <v>10</v>
       </c>
       <c r="U99" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V99" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
@@ -7671,7 +7819,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="10"/>
       <c r="AB99" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
@@ -7684,10 +7832,10 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -7715,19 +7863,19 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y100" s="6">
         <v>0</v>
       </c>
       <c r="Z100" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA100" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB100" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
@@ -7740,13 +7888,13 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -7772,16 +7920,16 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="9" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="T101" s="9">
         <v>10</v>
       </c>
       <c r="U101" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V101" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
@@ -7789,7 +7937,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="10"/>
       <c r="AB101" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
@@ -7802,10 +7950,10 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -7833,19 +7981,19 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y102" s="6">
         <v>0</v>
       </c>
       <c r="Z102" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA102" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB102" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
@@ -7858,13 +8006,13 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -7890,16 +8038,16 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="9" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="T103" s="9">
         <v>10</v>
       </c>
       <c r="U103" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V103" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
@@ -7907,7 +8055,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="10"/>
       <c r="AB103" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
@@ -7920,10 +8068,10 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -7951,19 +8099,19 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y104" s="6">
         <v>0</v>
       </c>
       <c r="Z104" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA104" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB104" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
@@ -7976,13 +8124,13 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -8008,16 +8156,16 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="9" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="T105" s="9">
         <v>10</v>
       </c>
       <c r="U105" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V105" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
@@ -8025,7 +8173,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="10"/>
       <c r="AB105" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
@@ -8038,7 +8186,7 @@
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B106" s="4">
         <v>1</v>
@@ -8069,19 +8217,19 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y106" s="6">
         <v>0</v>
       </c>
       <c r="Z106" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA106" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB106" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
@@ -8094,10 +8242,10 @@
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C107" s="9">
         <v>1</v>
@@ -8132,10 +8280,10 @@
         <v>10</v>
       </c>
       <c r="U107" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V107" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
@@ -8143,7 +8291,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="10"/>
       <c r="AB107" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
@@ -8156,7 +8304,7 @@
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B108" s="4">
         <v>2</v>
@@ -8187,19 +8335,19 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y108" s="6">
         <v>0</v>
       </c>
       <c r="Z108" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA108" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB108" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
@@ -8212,10 +8360,10 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C109" s="9">
         <v>2</v>
@@ -8250,10 +8398,10 @@
         <v>10</v>
       </c>
       <c r="U109" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V109" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
@@ -8261,7 +8409,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="10"/>
       <c r="AB109" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
@@ -8274,7 +8422,7 @@
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B110" s="4">
         <v>3</v>
@@ -8305,19 +8453,19 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y110" s="6">
         <v>0</v>
       </c>
       <c r="Z110" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA110" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB110" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
@@ -8330,10 +8478,10 @@
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C111" s="9">
         <v>3</v>
@@ -8368,10 +8516,10 @@
         <v>10</v>
       </c>
       <c r="U111" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V111" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
@@ -8379,7 +8527,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="10"/>
       <c r="AB111" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
@@ -8392,7 +8540,7 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B112" s="4">
         <v>4</v>
@@ -8423,19 +8571,19 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y112" s="6">
         <v>0</v>
       </c>
       <c r="Z112" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA112" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB112" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
@@ -8448,10 +8596,10 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C113" s="9">
         <v>4</v>
@@ -8486,10 +8634,10 @@
         <v>10</v>
       </c>
       <c r="U113" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V113" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
@@ -8497,7 +8645,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="10"/>
       <c r="AB113" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
@@ -8510,7 +8658,7 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B114" s="4">
         <v>5</v>
@@ -8541,19 +8689,19 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y114" s="6">
         <v>0</v>
       </c>
       <c r="Z114" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA114" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB114" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
@@ -8566,10 +8714,10 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C115" s="9">
         <v>5</v>
@@ -8604,10 +8752,10 @@
         <v>10</v>
       </c>
       <c r="U115" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V115" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
@@ -8615,7 +8763,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="10"/>
       <c r="AB115" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
@@ -8628,7 +8776,7 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B116" s="4">
         <v>6</v>
@@ -8659,19 +8807,19 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y116" s="6">
         <v>0</v>
       </c>
       <c r="Z116" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA116" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB116" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
@@ -8684,10 +8832,10 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C117" s="9">
         <v>6</v>
@@ -8722,10 +8870,10 @@
         <v>10</v>
       </c>
       <c r="U117" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V117" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
@@ -8733,7 +8881,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="10"/>
       <c r="AB117" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
@@ -8746,7 +8894,7 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B118" s="4">
         <v>7</v>
@@ -8777,19 +8925,19 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y118" s="6">
         <v>0</v>
       </c>
       <c r="Z118" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA118" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB118" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
@@ -8802,10 +8950,10 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C119" s="9">
         <v>7</v>
@@ -8840,10 +8988,10 @@
         <v>10</v>
       </c>
       <c r="U119" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V119" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
@@ -8851,7 +8999,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="10"/>
       <c r="AB119" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
@@ -8864,7 +9012,7 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B120" s="4">
         <v>8</v>
@@ -8895,19 +9043,19 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y120" s="6">
         <v>0</v>
       </c>
       <c r="Z120" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA120" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB120" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC120" s="5"/>
       <c r="AD120" s="5"/>
@@ -8920,10 +9068,10 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C121" s="9">
         <v>8</v>
@@ -8958,10 +9106,10 @@
         <v>10</v>
       </c>
       <c r="U121" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V121" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
@@ -8969,7 +9117,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="10"/>
       <c r="AB121" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -8982,7 +9130,7 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B122" s="4">
         <v>9</v>
@@ -9013,19 +9161,19 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y122" s="6">
         <v>0</v>
       </c>
       <c r="Z122" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA122" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB122" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
@@ -9038,10 +9186,10 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C123" s="9">
         <v>9</v>
@@ -9076,10 +9224,10 @@
         <v>10</v>
       </c>
       <c r="U123" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V123" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
@@ -9087,7 +9235,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="10"/>
       <c r="AB123" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
@@ -9100,16 +9248,18 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B124" s="4">
         <v>13</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E124" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -9135,16 +9285,16 @@
         <v>13</v>
       </c>
       <c r="X124" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y124" s="6">
         <v>0</v>
       </c>
       <c r="Z124" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AA124" s="8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AB124" s="5"/>
       <c r="AC124" s="5"/>
@@ -9158,10 +9308,10 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C125" s="6">
         <v>13</v>
@@ -9196,10 +9346,10 @@
         <v>10</v>
       </c>
       <c r="U125" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V125" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W125" s="6">
         <v>13</v>
@@ -9220,7 +9370,7 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B126" s="4">
         <v>21</v>
@@ -9251,19 +9401,19 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y126" s="6">
         <v>0</v>
       </c>
       <c r="Z126" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA126" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB126" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
@@ -9276,10 +9426,10 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C127" s="9">
         <v>21</v>
@@ -9314,10 +9464,10 @@
         <v>10</v>
       </c>
       <c r="U127" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V127" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
@@ -9325,7 +9475,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="10"/>
       <c r="AB127" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC127" s="5"/>
       <c r="AD127" s="5"/>
@@ -9338,7 +9488,7 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B128" s="4">
         <v>22</v>
@@ -9369,19 +9519,19 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y128" s="6">
         <v>0</v>
       </c>
       <c r="Z128" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA128" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB128" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
@@ -9394,10 +9544,10 @@
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C129" s="9">
         <v>22</v>
@@ -9432,10 +9582,10 @@
         <v>10</v>
       </c>
       <c r="U129" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V129" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
@@ -9443,7 +9593,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="10"/>
       <c r="AB129" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC129" s="5"/>
       <c r="AD129" s="5"/>
@@ -9456,7 +9606,7 @@
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B130" s="4">
         <v>23</v>
@@ -9487,19 +9637,19 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y130" s="6">
         <v>0</v>
       </c>
       <c r="Z130" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA130" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB130" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
@@ -9512,10 +9662,10 @@
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C131" s="9">
         <v>23</v>
@@ -9550,10 +9700,10 @@
         <v>10</v>
       </c>
       <c r="U131" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V131" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
@@ -9561,7 +9711,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="10"/>
       <c r="AB131" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC131" s="5"/>
       <c r="AD131" s="5"/>
@@ -9574,7 +9724,7 @@
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B132" s="4">
         <v>24</v>
@@ -9605,19 +9755,19 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y132" s="6">
         <v>0</v>
       </c>
       <c r="Z132" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA132" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB132" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
@@ -9630,10 +9780,10 @@
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C133" s="9">
         <v>24</v>
@@ -9668,10 +9818,10 @@
         <v>10</v>
       </c>
       <c r="U133" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V133" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
@@ -9679,7 +9829,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="10"/>
       <c r="AB133" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC133" s="5"/>
       <c r="AD133" s="5"/>
@@ -9692,7 +9842,7 @@
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B134" s="4">
         <v>25</v>
@@ -9723,19 +9873,19 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y134" s="6">
         <v>0</v>
       </c>
       <c r="Z134" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA134" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB134" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC134" s="5"/>
       <c r="AD134" s="5"/>
@@ -9748,10 +9898,10 @@
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C135" s="9">
         <v>25</v>
@@ -9786,10 +9936,10 @@
         <v>10</v>
       </c>
       <c r="U135" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V135" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W135" s="4"/>
       <c r="X135" s="4"/>
@@ -9797,7 +9947,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="10"/>
       <c r="AB135" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
@@ -9810,7 +9960,7 @@
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B136" s="4">
         <v>26</v>
@@ -9841,19 +9991,19 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y136" s="6">
         <v>0</v>
       </c>
       <c r="Z136" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA136" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB136" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
@@ -9866,10 +10016,10 @@
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C137" s="9">
         <v>26</v>
@@ -9904,10 +10054,10 @@
         <v>10</v>
       </c>
       <c r="U137" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V137" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W137" s="4"/>
       <c r="X137" s="4"/>
@@ -9915,7 +10065,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="10"/>
       <c r="AB137" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
@@ -9928,7 +10078,7 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B138" s="4">
         <v>27</v>
@@ -9959,19 +10109,19 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y138" s="6">
         <v>0</v>
       </c>
       <c r="Z138" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA138" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB138" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC138" s="5"/>
       <c r="AD138" s="5"/>
@@ -9984,10 +10134,10 @@
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C139" s="9">
         <v>27</v>
@@ -10022,10 +10172,10 @@
         <v>10</v>
       </c>
       <c r="U139" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V139" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W139" s="4"/>
       <c r="X139" s="4"/>
@@ -10033,7 +10183,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="10"/>
       <c r="AB139" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
@@ -10046,7 +10196,7 @@
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B140" s="4">
         <v>28</v>
@@ -10077,19 +10227,19 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y140" s="6">
         <v>0</v>
       </c>
       <c r="Z140" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA140" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB140" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
@@ -10102,10 +10252,10 @@
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C141" s="9">
         <v>28</v>
@@ -10140,10 +10290,10 @@
         <v>10</v>
       </c>
       <c r="U141" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V141" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W141" s="4"/>
       <c r="X141" s="4"/>
@@ -10151,7 +10301,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="10"/>
       <c r="AB141" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC141" s="5"/>
       <c r="AD141" s="5"/>
@@ -10164,7 +10314,7 @@
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B142" s="4">
         <v>29</v>
@@ -10195,19 +10345,19 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y142" s="6">
         <v>0</v>
       </c>
       <c r="Z142" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA142" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB142" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC142" s="5"/>
       <c r="AD142" s="5"/>
@@ -10220,10 +10370,10 @@
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C143" s="9">
         <v>29</v>
@@ -10258,10 +10408,10 @@
         <v>10</v>
       </c>
       <c r="U143" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V143" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>
@@ -10269,7 +10419,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="10"/>
       <c r="AB143" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC143" s="5"/>
       <c r="AD143" s="5"/>
@@ -10282,7 +10432,7 @@
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B144" s="4">
         <v>30</v>
@@ -10313,19 +10463,19 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y144" s="6">
         <v>0</v>
       </c>
       <c r="Z144" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA144" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AB144" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC144" s="5"/>
       <c r="AD144" s="5"/>
@@ -10338,10 +10488,10 @@
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C145" s="9">
         <v>30</v>
@@ -10376,10 +10526,10 @@
         <v>10</v>
       </c>
       <c r="U145" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V145" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W145" s="4"/>
       <c r="X145" s="4"/>
@@ -10387,7 +10537,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="10"/>
       <c r="AB145" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC145" s="5"/>
       <c r="AD145" s="5"/>
@@ -10400,10 +10550,10 @@
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -10430,19 +10580,19 @@
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146" s="4" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="X146" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y146" s="6">
         <v>0</v>
       </c>
       <c r="Z146" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="AA146" s="8" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -10456,10 +10606,10 @@
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -10486,19 +10636,19 @@
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
       <c r="W147" s="4" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="X147" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y147" s="6">
         <v>0</v>
       </c>
       <c r="Z147" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="AA147" s="8" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
@@ -10515,13 +10665,15 @@
         <v>40</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E148" s="4"/>
+      <c r="E148" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -10544,22 +10696,22 @@
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="6" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="X148" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y148" s="6">
         <v>0</v>
       </c>
       <c r="Z148" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AA148" s="8" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AB148" s="5" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AC148" s="5"/>
       <c r="AD148" s="5"/>
@@ -10575,15 +10727,18 @@
         <v>31</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E149" s="6"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -10605,17 +10760,17 @@
       <c r="V149" s="4"/>
       <c r="W149" s="6"/>
       <c r="X149" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y149" s="6">
         <v>0</v>
       </c>
       <c r="Z149" s="7"/>
       <c r="AA149" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AB149" s="5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AC149" s="5"/>
       <c r="AD149" s="5"/>
@@ -10631,15 +10786,18 @@
         <v>31</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -10661,14 +10819,14 @@
       <c r="V150" s="4"/>
       <c r="W150" s="6"/>
       <c r="X150" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y150" s="6">
         <v>0</v>
       </c>
       <c r="Z150" s="7"/>
       <c r="AA150" s="8" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
@@ -10682,17 +10840,15 @@
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D151" s="6"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="6"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -10720,13 +10876,13 @@
         <v>10</v>
       </c>
       <c r="U151" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V151" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W151" s="6" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
@@ -10747,14 +10903,15 @@
         <v>40</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
+      <c r="E152" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
@@ -10776,19 +10933,19 @@
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152" s="4" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="X152" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y152" s="6">
         <v>0</v>
       </c>
       <c r="Z152" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AA152" s="8" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5"/>
@@ -10805,15 +10962,18 @@
         <v>31</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E153" s="6"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -10835,14 +10995,14 @@
       <c r="V153" s="4"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y153" s="6">
         <v>0</v>
       </c>
       <c r="Z153" s="7"/>
       <c r="AA153" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
@@ -10859,15 +11019,19 @@
         <v>31</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E154" s="6"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -10889,14 +11053,14 @@
       <c r="V154" s="4"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y154" s="6">
         <v>0</v>
       </c>
       <c r="Z154" s="7"/>
       <c r="AA154" s="8" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5"/>
@@ -10910,17 +11074,15 @@
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D155" s="6"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="6"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -10948,13 +11110,13 @@
         <v>10</v>
       </c>
       <c r="U155" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V155" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W155" s="6" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
@@ -10975,13 +11137,15 @@
         <v>40</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E156" s="4"/>
+      <c r="E156" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -11004,19 +11168,19 @@
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156" s="4" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="X156" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y156" s="6">
         <v>0</v>
       </c>
       <c r="Z156" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AA156" s="8" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
@@ -11033,15 +11197,19 @@
         <v>31</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E157" s="6"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
+      <c r="F157" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -11063,14 +11231,14 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y157" s="6">
         <v>0</v>
       </c>
       <c r="Z157" s="7"/>
       <c r="AA157" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
@@ -11087,15 +11255,19 @@
         <v>31</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E158" s="6"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
+      <c r="F158" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -11117,14 +11289,14 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y158" s="6">
         <v>0</v>
       </c>
       <c r="Z158" s="7"/>
       <c r="AA158" s="8" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
@@ -11138,13 +11310,13 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="4"/>
@@ -11176,13 +11348,13 @@
         <v>10</v>
       </c>
       <c r="U159" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V159" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W159" s="6" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
@@ -11203,13 +11375,15 @@
         <v>40</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="4"/>
+      <c r="E160" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -11232,19 +11406,19 @@
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
       <c r="W160" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="X160" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="X160" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="Y160" s="6">
         <v>0</v>
       </c>
       <c r="Z160" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AA160" s="8" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
@@ -11261,15 +11435,19 @@
         <v>31</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E161" s="6"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
+      <c r="F161" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -11291,14 +11469,14 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y161" s="6">
         <v>0</v>
       </c>
       <c r="Z161" s="7"/>
       <c r="AA161" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
@@ -11315,15 +11493,19 @@
         <v>31</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E162" s="6"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
+      <c r="F162" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -11345,14 +11527,14 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
       <c r="X162" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y162" s="6">
         <v>0</v>
       </c>
       <c r="Z162" s="7"/>
       <c r="AA162" s="8" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
@@ -11366,13 +11548,13 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="4"/>
@@ -11404,13 +11586,13 @@
         <v>10</v>
       </c>
       <c r="U163" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V163" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W163" s="6" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
@@ -11431,13 +11613,15 @@
         <v>40</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E164" s="4"/>
+      <c r="E164" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -11460,19 +11644,19 @@
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
       <c r="W164" s="4" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="X164" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y164" s="6">
         <v>0</v>
       </c>
       <c r="Z164" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AA164" s="8" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AB164" s="5"/>
       <c r="AC164" s="5"/>
@@ -11489,15 +11673,19 @@
         <v>31</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E165" s="6"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
+      <c r="F165" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -11519,14 +11707,14 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
       <c r="X165" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y165" s="6">
         <v>0</v>
       </c>
       <c r="Z165" s="7"/>
       <c r="AA165" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AB165" s="5"/>
       <c r="AC165" s="5"/>
@@ -11543,15 +11731,19 @@
         <v>31</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E166" s="6"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
+      <c r="F166" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
@@ -11573,14 +11765,14 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
       <c r="X166" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y166" s="6">
         <v>0</v>
       </c>
       <c r="Z166" s="7"/>
       <c r="AA166" s="8" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
@@ -11594,13 +11786,13 @@
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="4"/>
@@ -11632,13 +11824,13 @@
         <v>10</v>
       </c>
       <c r="U167" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V167" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W167" s="6" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
@@ -11659,13 +11851,15 @@
         <v>40</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E168" s="4"/>
+      <c r="E168" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
@@ -11688,19 +11882,19 @@
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
       <c r="W168" s="4" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="X168" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y168" s="6">
         <v>0</v>
       </c>
       <c r="Z168" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AA168" s="8" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
@@ -11717,15 +11911,19 @@
         <v>31</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E169" s="6"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
+      <c r="F169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
@@ -11747,14 +11945,14 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
       <c r="X169" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y169" s="6">
         <v>0</v>
       </c>
       <c r="Z169" s="7"/>
       <c r="AA169" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AB169" s="5"/>
       <c r="AC169" s="5"/>
@@ -11771,15 +11969,19 @@
         <v>31</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E170" s="6"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
+      <c r="F170" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -11801,14 +12003,14 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
       <c r="X170" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y170" s="6">
         <v>0</v>
       </c>
       <c r="Z170" s="7"/>
       <c r="AA170" s="8" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AB170" s="5"/>
       <c r="AC170" s="5"/>
@@ -11822,13 +12024,13 @@
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="4"/>
@@ -11860,13 +12062,13 @@
         <v>10</v>
       </c>
       <c r="U171" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V171" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W171" s="6" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
@@ -11887,13 +12089,15 @@
         <v>40</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E172" s="4"/>
+      <c r="E172" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -11916,19 +12120,19 @@
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
       <c r="W172" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="X172" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y172" s="6">
         <v>0</v>
       </c>
       <c r="Z172" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AA172" s="8" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AB172" s="5"/>
       <c r="AC172" s="5"/>
@@ -11945,15 +12149,19 @@
         <v>31</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E173" s="6"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
+      <c r="F173" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -11975,14 +12183,14 @@
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
       <c r="X173" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y173" s="6">
         <v>0</v>
       </c>
       <c r="Z173" s="7"/>
       <c r="AA173" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AB173" s="5"/>
       <c r="AC173" s="5"/>
@@ -11999,15 +12207,19 @@
         <v>31</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
+      <c r="F174" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -12029,14 +12241,14 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
       <c r="X174" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y174" s="6">
         <v>0</v>
       </c>
       <c r="Z174" s="7"/>
       <c r="AA174" s="8" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AB174" s="5"/>
       <c r="AC174" s="5"/>
@@ -12050,13 +12262,13 @@
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="4"/>
@@ -12088,13 +12300,13 @@
         <v>10</v>
       </c>
       <c r="U175" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V175" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W175" s="6" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
@@ -12115,7 +12327,7 @@
         <v>40</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -12143,19 +12355,19 @@
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y176" s="6">
         <v>0</v>
       </c>
       <c r="Z176" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA176" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB176" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC176" s="5"/>
       <c r="AD176" s="5"/>
@@ -12171,7 +12383,7 @@
         <v>31</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -12199,17 +12411,17 @@
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y177" s="6">
         <v>0</v>
       </c>
       <c r="Z177" s="7"/>
       <c r="AA177" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB177" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC177" s="5"/>
       <c r="AD177" s="5"/>
@@ -12225,7 +12437,7 @@
         <v>31</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -12253,17 +12465,17 @@
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
       <c r="X178" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y178" s="6">
         <v>0</v>
       </c>
       <c r="Z178" s="7"/>
       <c r="AA178" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB178" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC178" s="5"/>
       <c r="AD178" s="5"/>
@@ -12276,13 +12488,13 @@
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -12314,10 +12526,10 @@
         <v>10</v>
       </c>
       <c r="U179" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V179" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
@@ -12325,7 +12537,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="10"/>
       <c r="AB179" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC179" s="5"/>
       <c r="AD179" s="5"/>
@@ -12341,7 +12553,7 @@
         <v>40</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -12369,19 +12581,19 @@
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
       <c r="X180" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y180" s="6">
         <v>0</v>
       </c>
       <c r="Z180" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA180" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB180" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC180" s="5"/>
       <c r="AD180" s="5"/>
@@ -12397,7 +12609,7 @@
         <v>31</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -12425,17 +12637,17 @@
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
       <c r="X181" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y181" s="6">
         <v>0</v>
       </c>
       <c r="Z181" s="7"/>
       <c r="AA181" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB181" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC181" s="5"/>
       <c r="AD181" s="5"/>
@@ -12451,7 +12663,7 @@
         <v>31</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -12479,17 +12691,17 @@
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
       <c r="X182" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y182" s="6">
         <v>0</v>
       </c>
       <c r="Z182" s="7"/>
       <c r="AA182" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB182" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC182" s="5"/>
       <c r="AD182" s="5"/>
@@ -12502,13 +12714,13 @@
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -12540,10 +12752,10 @@
         <v>10</v>
       </c>
       <c r="U183" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V183" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W183" s="4"/>
       <c r="X183" s="4"/>
@@ -12551,7 +12763,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="10"/>
       <c r="AB183" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC183" s="5"/>
       <c r="AD183" s="5"/>
@@ -12567,7 +12779,7 @@
         <v>40</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -12595,19 +12807,19 @@
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
       <c r="X184" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y184" s="6">
         <v>0</v>
       </c>
       <c r="Z184" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA184" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB184" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC184" s="5"/>
       <c r="AD184" s="5"/>
@@ -12623,7 +12835,7 @@
         <v>31</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -12651,17 +12863,17 @@
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
       <c r="X185" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y185" s="6">
         <v>0</v>
       </c>
       <c r="Z185" s="7"/>
       <c r="AA185" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB185" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC185" s="5"/>
       <c r="AD185" s="5"/>
@@ -12677,7 +12889,7 @@
         <v>31</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -12705,17 +12917,17 @@
       <c r="V186" s="4"/>
       <c r="W186" s="4"/>
       <c r="X186" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y186" s="6">
         <v>0</v>
       </c>
       <c r="Z186" s="7"/>
       <c r="AA186" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB186" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC186" s="5"/>
       <c r="AD186" s="5"/>
@@ -12728,13 +12940,13 @@
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -12766,10 +12978,10 @@
         <v>10</v>
       </c>
       <c r="U187" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V187" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W187" s="4"/>
       <c r="X187" s="4"/>
@@ -12777,7 +12989,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="10"/>
       <c r="AB187" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC187" s="5"/>
       <c r="AD187" s="5"/>
@@ -12793,7 +13005,7 @@
         <v>40</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -12821,19 +13033,19 @@
       <c r="V188" s="4"/>
       <c r="W188" s="4"/>
       <c r="X188" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y188" s="6">
         <v>0</v>
       </c>
       <c r="Z188" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA188" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB188" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC188" s="5"/>
       <c r="AD188" s="5"/>
@@ -12849,7 +13061,7 @@
         <v>31</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -12877,17 +13089,17 @@
       <c r="V189" s="4"/>
       <c r="W189" s="4"/>
       <c r="X189" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y189" s="6">
         <v>0</v>
       </c>
       <c r="Z189" s="7"/>
       <c r="AA189" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB189" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC189" s="5"/>
       <c r="AD189" s="5"/>
@@ -12903,7 +13115,7 @@
         <v>31</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -12931,17 +13143,17 @@
       <c r="V190" s="4"/>
       <c r="W190" s="4"/>
       <c r="X190" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y190" s="6">
         <v>0</v>
       </c>
       <c r="Z190" s="7"/>
       <c r="AA190" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB190" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC190" s="5"/>
       <c r="AD190" s="5"/>
@@ -12954,13 +13166,13 @@
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -12992,10 +13204,10 @@
         <v>10</v>
       </c>
       <c r="U191" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V191" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
@@ -13003,7 +13215,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="10"/>
       <c r="AB191" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC191" s="5"/>
       <c r="AD191" s="5"/>
@@ -13019,7 +13231,7 @@
         <v>40</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -13047,19 +13259,19 @@
       <c r="V192" s="4"/>
       <c r="W192" s="4"/>
       <c r="X192" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y192" s="6">
         <v>0</v>
       </c>
       <c r="Z192" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA192" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB192" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC192" s="5"/>
       <c r="AD192" s="5"/>
@@ -13075,7 +13287,7 @@
         <v>31</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -13103,17 +13315,17 @@
       <c r="V193" s="4"/>
       <c r="W193" s="4"/>
       <c r="X193" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y193" s="6">
         <v>0</v>
       </c>
       <c r="Z193" s="7"/>
       <c r="AA193" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB193" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC193" s="5"/>
       <c r="AD193" s="5"/>
@@ -13129,7 +13341,7 @@
         <v>31</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -13157,17 +13369,17 @@
       <c r="V194" s="4"/>
       <c r="W194" s="4"/>
       <c r="X194" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y194" s="6">
         <v>0</v>
       </c>
       <c r="Z194" s="7"/>
       <c r="AA194" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB194" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC194" s="5"/>
       <c r="AD194" s="5"/>
@@ -13180,13 +13392,13 @@
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -13218,10 +13430,10 @@
         <v>10</v>
       </c>
       <c r="U195" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V195" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W195" s="4"/>
       <c r="X195" s="4"/>
@@ -13229,7 +13441,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="10"/>
       <c r="AB195" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC195" s="5"/>
       <c r="AD195" s="5"/>
@@ -13245,7 +13457,7 @@
         <v>40</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -13273,19 +13485,19 @@
       <c r="V196" s="4"/>
       <c r="W196" s="4"/>
       <c r="X196" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y196" s="6">
         <v>0</v>
       </c>
       <c r="Z196" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA196" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB196" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC196" s="5"/>
       <c r="AD196" s="5"/>
@@ -13301,7 +13513,7 @@
         <v>31</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -13329,17 +13541,17 @@
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
       <c r="X197" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y197" s="6">
         <v>0</v>
       </c>
       <c r="Z197" s="7"/>
       <c r="AA197" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB197" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC197" s="5"/>
       <c r="AD197" s="5"/>
@@ -13355,7 +13567,7 @@
         <v>31</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -13383,17 +13595,17 @@
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
       <c r="X198" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y198" s="6">
         <v>0</v>
       </c>
       <c r="Z198" s="7"/>
       <c r="AA198" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB198" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC198" s="5"/>
       <c r="AD198" s="5"/>
@@ -13406,13 +13618,13 @@
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -13444,10 +13656,10 @@
         <v>10</v>
       </c>
       <c r="U199" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V199" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W199" s="4"/>
       <c r="X199" s="4"/>
@@ -13455,7 +13667,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="10"/>
       <c r="AB199" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC199" s="5"/>
       <c r="AD199" s="5"/>
@@ -13471,7 +13683,7 @@
         <v>40</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -13499,19 +13711,19 @@
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
       <c r="X200" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y200" s="6">
         <v>0</v>
       </c>
       <c r="Z200" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA200" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB200" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC200" s="5"/>
       <c r="AD200" s="5"/>
@@ -13527,7 +13739,7 @@
         <v>31</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -13555,17 +13767,17 @@
       <c r="V201" s="4"/>
       <c r="W201" s="4"/>
       <c r="X201" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y201" s="6">
         <v>0</v>
       </c>
       <c r="Z201" s="7"/>
       <c r="AA201" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB201" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC201" s="5"/>
       <c r="AD201" s="5"/>
@@ -13581,7 +13793,7 @@
         <v>31</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -13609,17 +13821,17 @@
       <c r="V202" s="4"/>
       <c r="W202" s="4"/>
       <c r="X202" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y202" s="6">
         <v>0</v>
       </c>
       <c r="Z202" s="7"/>
       <c r="AA202" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB202" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC202" s="5"/>
       <c r="AD202" s="5"/>
@@ -13632,13 +13844,13 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -13670,10 +13882,10 @@
         <v>10</v>
       </c>
       <c r="U203" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V203" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W203" s="4"/>
       <c r="X203" s="4"/>
@@ -13681,7 +13893,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="10"/>
       <c r="AB203" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC203" s="5"/>
       <c r="AD203" s="5"/>
@@ -13697,7 +13909,7 @@
         <v>40</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -13725,19 +13937,19 @@
       <c r="V204" s="4"/>
       <c r="W204" s="4"/>
       <c r="X204" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y204" s="6">
         <v>0</v>
       </c>
       <c r="Z204" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA204" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB204" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC204" s="5"/>
       <c r="AD204" s="5"/>
@@ -13753,7 +13965,7 @@
         <v>31</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -13781,17 +13993,17 @@
       <c r="V205" s="4"/>
       <c r="W205" s="4"/>
       <c r="X205" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y205" s="6">
         <v>0</v>
       </c>
       <c r="Z205" s="7"/>
       <c r="AA205" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB205" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC205" s="5"/>
       <c r="AD205" s="5"/>
@@ -13807,7 +14019,7 @@
         <v>31</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -13835,17 +14047,17 @@
       <c r="V206" s="4"/>
       <c r="W206" s="4"/>
       <c r="X206" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y206" s="6">
         <v>0</v>
       </c>
       <c r="Z206" s="7"/>
       <c r="AA206" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB206" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC206" s="5"/>
       <c r="AD206" s="5"/>
@@ -13858,13 +14070,13 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -13896,10 +14108,10 @@
         <v>10</v>
       </c>
       <c r="U207" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V207" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W207" s="4"/>
       <c r="X207" s="4"/>
@@ -13907,7 +14119,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="10"/>
       <c r="AB207" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC207" s="5"/>
       <c r="AD207" s="5"/>
@@ -13923,7 +14135,7 @@
         <v>40</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -13951,19 +14163,19 @@
       <c r="V208" s="4"/>
       <c r="W208" s="4"/>
       <c r="X208" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y208" s="6">
         <v>0</v>
       </c>
       <c r="Z208" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA208" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB208" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC208" s="5"/>
       <c r="AD208" s="5"/>
@@ -13979,7 +14191,7 @@
         <v>31</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -14007,17 +14219,17 @@
       <c r="V209" s="4"/>
       <c r="W209" s="4"/>
       <c r="X209" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y209" s="6">
         <v>0</v>
       </c>
       <c r="Z209" s="7"/>
       <c r="AA209" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB209" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC209" s="5"/>
       <c r="AD209" s="5"/>
@@ -14033,7 +14245,7 @@
         <v>31</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -14061,17 +14273,17 @@
       <c r="V210" s="4"/>
       <c r="W210" s="4"/>
       <c r="X210" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y210" s="6">
         <v>0</v>
       </c>
       <c r="Z210" s="7"/>
       <c r="AA210" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB210" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC210" s="5"/>
       <c r="AD210" s="5"/>
@@ -14084,13 +14296,13 @@
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -14122,10 +14334,10 @@
         <v>10</v>
       </c>
       <c r="U211" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V211" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W211" s="4"/>
       <c r="X211" s="4"/>
@@ -14133,7 +14345,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="10"/>
       <c r="AB211" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC211" s="5"/>
       <c r="AD211" s="5"/>
@@ -14149,7 +14361,7 @@
         <v>40</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -14177,19 +14389,19 @@
       <c r="V212" s="4"/>
       <c r="W212" s="4"/>
       <c r="X212" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y212" s="6">
         <v>0</v>
       </c>
       <c r="Z212" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA212" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB212" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC212" s="5"/>
       <c r="AD212" s="5"/>
@@ -14205,7 +14417,7 @@
         <v>31</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -14233,17 +14445,17 @@
       <c r="V213" s="4"/>
       <c r="W213" s="4"/>
       <c r="X213" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y213" s="6">
         <v>0</v>
       </c>
       <c r="Z213" s="7"/>
       <c r="AA213" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB213" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC213" s="5"/>
       <c r="AD213" s="5"/>
@@ -14259,7 +14471,7 @@
         <v>31</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -14287,17 +14499,17 @@
       <c r="V214" s="4"/>
       <c r="W214" s="4"/>
       <c r="X214" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y214" s="6">
         <v>0</v>
       </c>
       <c r="Z214" s="7"/>
       <c r="AA214" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB214" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC214" s="5"/>
       <c r="AD214" s="5"/>
@@ -14310,13 +14522,13 @@
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -14348,10 +14560,10 @@
         <v>10</v>
       </c>
       <c r="U215" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V215" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W215" s="4"/>
       <c r="X215" s="4"/>
@@ -14359,7 +14571,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="10"/>
       <c r="AB215" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC215" s="5"/>
       <c r="AD215" s="5"/>
@@ -14375,7 +14587,7 @@
         <v>40</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -14403,19 +14615,19 @@
       <c r="V216" s="4"/>
       <c r="W216" s="4"/>
       <c r="X216" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y216" s="6">
         <v>0</v>
       </c>
       <c r="Z216" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA216" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB216" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC216" s="5"/>
       <c r="AD216" s="5"/>
@@ -14431,7 +14643,7 @@
         <v>31</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -14459,17 +14671,17 @@
       <c r="V217" s="4"/>
       <c r="W217" s="4"/>
       <c r="X217" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y217" s="6">
         <v>0</v>
       </c>
       <c r="Z217" s="7"/>
       <c r="AA217" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB217" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC217" s="5"/>
       <c r="AD217" s="5"/>
@@ -14485,7 +14697,7 @@
         <v>31</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -14513,17 +14725,17 @@
       <c r="V218" s="4"/>
       <c r="W218" s="4"/>
       <c r="X218" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y218" s="6">
         <v>0</v>
       </c>
       <c r="Z218" s="7"/>
       <c r="AA218" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB218" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC218" s="5"/>
       <c r="AD218" s="5"/>
@@ -14536,13 +14748,13 @@
     </row>
     <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -14574,10 +14786,10 @@
         <v>10</v>
       </c>
       <c r="U219" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V219" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W219" s="4"/>
       <c r="X219" s="4"/>
@@ -14585,7 +14797,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="10"/>
       <c r="AB219" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC219" s="5"/>
       <c r="AD219" s="5"/>
@@ -14601,7 +14813,7 @@
         <v>40</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -14629,19 +14841,19 @@
       <c r="V220" s="4"/>
       <c r="W220" s="4"/>
       <c r="X220" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y220" s="6">
         <v>0</v>
       </c>
       <c r="Z220" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA220" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB220" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC220" s="5"/>
       <c r="AD220" s="5"/>
@@ -14657,7 +14869,7 @@
         <v>31</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -14685,17 +14897,17 @@
       <c r="V221" s="4"/>
       <c r="W221" s="4"/>
       <c r="X221" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y221" s="6">
         <v>0</v>
       </c>
       <c r="Z221" s="7"/>
       <c r="AA221" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB221" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC221" s="5"/>
       <c r="AD221" s="5"/>
@@ -14711,7 +14923,7 @@
         <v>31</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -14739,17 +14951,17 @@
       <c r="V222" s="4"/>
       <c r="W222" s="4"/>
       <c r="X222" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y222" s="6">
         <v>0</v>
       </c>
       <c r="Z222" s="7"/>
       <c r="AA222" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB222" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC222" s="5"/>
       <c r="AD222" s="5"/>
@@ -14762,13 +14974,13 @@
     </row>
     <row r="223" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -14800,10 +15012,10 @@
         <v>10</v>
       </c>
       <c r="U223" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V223" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W223" s="4"/>
       <c r="X223" s="4"/>
@@ -14811,7 +15023,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="10"/>
       <c r="AB223" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC223" s="5"/>
       <c r="AD223" s="5"/>
@@ -14827,7 +15039,7 @@
         <v>40</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -14855,19 +15067,19 @@
       <c r="V224" s="4"/>
       <c r="W224" s="4"/>
       <c r="X224" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y224" s="6">
         <v>0</v>
       </c>
       <c r="Z224" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA224" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB224" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC224" s="5"/>
       <c r="AD224" s="5"/>
@@ -14883,7 +15095,7 @@
         <v>31</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -14911,17 +15123,17 @@
       <c r="V225" s="4"/>
       <c r="W225" s="4"/>
       <c r="X225" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y225" s="6">
         <v>0</v>
       </c>
       <c r="Z225" s="7"/>
       <c r="AA225" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB225" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC225" s="5"/>
       <c r="AD225" s="5"/>
@@ -14937,7 +15149,7 @@
         <v>31</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -14965,17 +15177,17 @@
       <c r="V226" s="4"/>
       <c r="W226" s="4"/>
       <c r="X226" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y226" s="6">
         <v>0</v>
       </c>
       <c r="Z226" s="7"/>
       <c r="AA226" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB226" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC226" s="5"/>
       <c r="AD226" s="5"/>
@@ -14988,13 +15200,13 @@
     </row>
     <row r="227" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -15026,10 +15238,10 @@
         <v>10</v>
       </c>
       <c r="U227" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V227" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W227" s="4"/>
       <c r="X227" s="4"/>
@@ -15037,7 +15249,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="10"/>
       <c r="AB227" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC227" s="5"/>
       <c r="AD227" s="5"/>
@@ -15053,7 +15265,7 @@
         <v>40</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -15081,19 +15293,19 @@
       <c r="V228" s="4"/>
       <c r="W228" s="4"/>
       <c r="X228" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y228" s="6">
         <v>0</v>
       </c>
       <c r="Z228" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA228" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB228" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC228" s="5"/>
       <c r="AD228" s="5"/>
@@ -15109,7 +15321,7 @@
         <v>31</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -15137,17 +15349,17 @@
       <c r="V229" s="4"/>
       <c r="W229" s="4"/>
       <c r="X229" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y229" s="6">
         <v>0</v>
       </c>
       <c r="Z229" s="7"/>
       <c r="AA229" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB229" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC229" s="5"/>
       <c r="AD229" s="5"/>
@@ -15163,7 +15375,7 @@
         <v>31</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -15191,17 +15403,17 @@
       <c r="V230" s="4"/>
       <c r="W230" s="4"/>
       <c r="X230" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y230" s="6">
         <v>0</v>
       </c>
       <c r="Z230" s="7"/>
       <c r="AA230" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB230" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC230" s="5"/>
       <c r="AD230" s="5"/>
@@ -15214,13 +15426,13 @@
     </row>
     <row r="231" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -15252,10 +15464,10 @@
         <v>10</v>
       </c>
       <c r="U231" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V231" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W231" s="4"/>
       <c r="X231" s="4"/>
@@ -15263,7 +15475,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="10"/>
       <c r="AB231" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC231" s="5"/>
       <c r="AD231" s="5"/>
@@ -15279,7 +15491,7 @@
         <v>40</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -15307,19 +15519,19 @@
       <c r="V232" s="4"/>
       <c r="W232" s="4"/>
       <c r="X232" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y232" s="6">
         <v>0</v>
       </c>
       <c r="Z232" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA232" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB232" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC232" s="5"/>
       <c r="AD232" s="5"/>
@@ -15335,7 +15547,7 @@
         <v>31</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -15363,17 +15575,17 @@
       <c r="V233" s="4"/>
       <c r="W233" s="4"/>
       <c r="X233" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y233" s="6">
         <v>0</v>
       </c>
       <c r="Z233" s="7"/>
       <c r="AA233" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB233" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC233" s="5"/>
       <c r="AD233" s="5"/>
@@ -15389,7 +15601,7 @@
         <v>31</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -15417,17 +15629,17 @@
       <c r="V234" s="4"/>
       <c r="W234" s="4"/>
       <c r="X234" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y234" s="6">
         <v>0</v>
       </c>
       <c r="Z234" s="7"/>
       <c r="AA234" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB234" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC234" s="5"/>
       <c r="AD234" s="5"/>
@@ -15440,13 +15652,13 @@
     </row>
     <row r="235" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -15478,10 +15690,10 @@
         <v>10</v>
       </c>
       <c r="U235" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V235" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W235" s="4"/>
       <c r="X235" s="4"/>
@@ -15489,7 +15701,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="10"/>
       <c r="AB235" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC235" s="5"/>
       <c r="AD235" s="5"/>
@@ -15505,7 +15717,7 @@
         <v>40</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -15533,19 +15745,19 @@
       <c r="V236" s="4"/>
       <c r="W236" s="4"/>
       <c r="X236" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y236" s="6">
         <v>0</v>
       </c>
       <c r="Z236" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA236" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB236" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC236" s="5"/>
       <c r="AD236" s="5"/>
@@ -15561,7 +15773,7 @@
         <v>31</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -15589,17 +15801,17 @@
       <c r="V237" s="4"/>
       <c r="W237" s="4"/>
       <c r="X237" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y237" s="6">
         <v>0</v>
       </c>
       <c r="Z237" s="7"/>
       <c r="AA237" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB237" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC237" s="5"/>
       <c r="AD237" s="5"/>
@@ -15615,7 +15827,7 @@
         <v>31</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -15643,17 +15855,17 @@
       <c r="V238" s="4"/>
       <c r="W238" s="4"/>
       <c r="X238" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y238" s="6">
         <v>0</v>
       </c>
       <c r="Z238" s="7"/>
       <c r="AA238" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB238" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC238" s="5"/>
       <c r="AD238" s="5"/>
@@ -15666,13 +15878,13 @@
     </row>
     <row r="239" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -15704,10 +15916,10 @@
         <v>10</v>
       </c>
       <c r="U239" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V239" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W239" s="4"/>
       <c r="X239" s="4"/>
@@ -15715,7 +15927,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="10"/>
       <c r="AB239" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC239" s="5"/>
       <c r="AD239" s="5"/>
@@ -15731,7 +15943,7 @@
         <v>40</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -15759,19 +15971,19 @@
       <c r="V240" s="4"/>
       <c r="W240" s="4"/>
       <c r="X240" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y240" s="6">
         <v>0</v>
       </c>
       <c r="Z240" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA240" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB240" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC240" s="5"/>
       <c r="AD240" s="5"/>
@@ -15787,7 +15999,7 @@
         <v>31</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -15815,17 +16027,17 @@
       <c r="V241" s="4"/>
       <c r="W241" s="4"/>
       <c r="X241" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y241" s="6">
         <v>0</v>
       </c>
       <c r="Z241" s="7"/>
       <c r="AA241" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB241" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC241" s="5"/>
       <c r="AD241" s="5"/>
@@ -15841,7 +16053,7 @@
         <v>31</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -15869,17 +16081,17 @@
       <c r="V242" s="4"/>
       <c r="W242" s="4"/>
       <c r="X242" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y242" s="6">
         <v>0</v>
       </c>
       <c r="Z242" s="7"/>
       <c r="AA242" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB242" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC242" s="5"/>
       <c r="AD242" s="5"/>
@@ -15892,13 +16104,13 @@
     </row>
     <row r="243" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -15930,10 +16142,10 @@
         <v>10</v>
       </c>
       <c r="U243" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V243" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W243" s="4"/>
       <c r="X243" s="4"/>
@@ -15941,7 +16153,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="10"/>
       <c r="AB243" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC243" s="5"/>
       <c r="AD243" s="5"/>
@@ -15957,7 +16169,7 @@
         <v>40</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -15985,19 +16197,19 @@
       <c r="V244" s="4"/>
       <c r="W244" s="4"/>
       <c r="X244" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y244" s="6">
         <v>0</v>
       </c>
       <c r="Z244" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AA244" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AB244" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC244" s="5"/>
       <c r="AD244" s="5"/>
@@ -16013,7 +16225,7 @@
         <v>31</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -16041,17 +16253,17 @@
       <c r="V245" s="4"/>
       <c r="W245" s="4"/>
       <c r="X245" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y245" s="6">
         <v>0</v>
       </c>
       <c r="Z245" s="7"/>
       <c r="AA245" s="8" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AB245" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC245" s="5"/>
       <c r="AD245" s="5"/>
@@ -16067,7 +16279,7 @@
         <v>31</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -16095,17 +16307,17 @@
       <c r="V246" s="4"/>
       <c r="W246" s="4"/>
       <c r="X246" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y246" s="6">
         <v>0</v>
       </c>
       <c r="Z246" s="7"/>
       <c r="AA246" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AB246" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC246" s="5"/>
       <c r="AD246" s="5"/>
@@ -16118,13 +16330,13 @@
     </row>
     <row r="247" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -16156,10 +16368,10 @@
         <v>10</v>
       </c>
       <c r="U247" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V247" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W247" s="4"/>
       <c r="X247" s="4"/>
@@ -16167,7 +16379,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="10"/>
       <c r="AB247" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AC247" s="5"/>
       <c r="AD247" s="5"/>
@@ -16180,14 +16392,14 @@
     </row>
     <row r="248" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
@@ -16212,22 +16424,22 @@
       <c r="U248" s="4"/>
       <c r="V248" s="4"/>
       <c r="W248" s="4" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X248" s="6" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="Y248" s="6">
         <v>1</v>
       </c>
       <c r="Z248" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="AA248" s="8" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="AB248" s="5" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="AC248" s="5"/>
       <c r="AD248" s="5"/>
@@ -16243,11 +16455,11 @@
         <v>31</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -16273,14 +16485,14 @@
       <c r="V249" s="4"/>
       <c r="W249" s="4"/>
       <c r="X249" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y249" s="9">
         <v>0</v>
       </c>
       <c r="Z249" s="3"/>
       <c r="AA249" s="8" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AB249" s="5"/>
       <c r="AC249" s="5"/>
@@ -16297,11 +16509,11 @@
         <v>31</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -16327,14 +16539,14 @@
       <c r="V250" s="4"/>
       <c r="W250" s="4"/>
       <c r="X250" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y250" s="9">
         <v>0</v>
       </c>
       <c r="Z250" s="3"/>
       <c r="AA250" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AB250" s="5"/>
       <c r="AC250" s="5"/>
@@ -16580,35 +16792,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -16641,21 +16853,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH66S_Enohara-Inspection-Switchboard_UIList.xlsx
+++ b/exe/TSV/Excel/TH66S_Enohara-Inspection-Switchboard_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70196003-1C3A-4BF4-8EAA-05F0B3FF4B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B24711D-B478-4D13-A01F-05EE9EA9BE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="5100" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8010" yWindow="5145" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH66_江ノ原検車区操作盤_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="368">
   <si>
     <t>Type</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>物理鍵てこ</t>
+  </si>
+  <si>
+    <t>TH66S_81</t>
   </si>
   <si>
     <t>-1,1,-11,11</t>
@@ -16401,7 +16404,9 @@
       <c r="D248" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E248" s="4"/>
+      <c r="E248" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
@@ -16427,19 +16432,19 @@
         <v>354</v>
       </c>
       <c r="X248" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y248" s="6">
         <v>1</v>
       </c>
       <c r="Z248" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA248" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB248" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC248" s="5"/>
       <c r="AD248" s="5"/>
@@ -16455,13 +16460,15 @@
         <v>31</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E249" s="4"/>
+        <v>362</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
@@ -16509,13 +16516,15 @@
         <v>31</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E250" s="4"/>
+        <v>362</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
@@ -16792,18 +16801,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>232</v>
@@ -16867,7 +16876,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
